--- a/Bases_de_Dados_(2022-2023)/Sweden Allsvenskan_2022.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Sweden Allsvenskan_2022.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1413" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1455" uniqueCount="336">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -715,6 +715,21 @@
     <t>['81']</t>
   </si>
   <si>
+    <t>['9', '62']</t>
+  </si>
+  <si>
+    <t>['80']</t>
+  </si>
+  <si>
+    <t>['3', '58', '63', '81']</t>
+  </si>
+  <si>
+    <t>['54', '73']</t>
+  </si>
+  <si>
+    <t>['42', '66', '77']</t>
+  </si>
+  <si>
     <t>['19', '77']</t>
   </si>
   <si>
@@ -992,6 +1007,21 @@
   </si>
   <si>
     <t>['14']</t>
+  </si>
+  <si>
+    <t>['22', '61', '90+3']</t>
+  </si>
+  <si>
+    <t>['38', '90']</t>
+  </si>
+  <si>
+    <t>['6', '16', '31', '82']</t>
+  </si>
+  <si>
+    <t>['53', '70']</t>
+  </si>
+  <si>
+    <t>['44', '52', '55', '64', '88']</t>
   </si>
 </sst>
 </file>
@@ -1353,7 +1383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK226"/>
+  <dimension ref="A1:BK233"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1684,10 +1714,10 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT2">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1788,7 +1818,7 @@
         <v>82</v>
       </c>
       <c r="P3" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="Q3">
         <v>10</v>
@@ -1878,7 +1908,7 @@
         <v>2.14</v>
       </c>
       <c r="AT3">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -2066,7 +2096,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AT4">
         <v>1.07</v>
@@ -2448,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT6">
         <v>0.79</v>
@@ -2552,7 +2582,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -2642,7 +2672,7 @@
         <v>2.07</v>
       </c>
       <c r="AT7">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2743,7 +2773,7 @@
         <v>85</v>
       </c>
       <c r="P8" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="Q8">
         <v>9</v>
@@ -2830,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AT8">
         <v>1.36</v>
@@ -3125,7 +3155,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -3212,7 +3242,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AT10">
         <v>1.5</v>
@@ -3316,7 +3346,7 @@
         <v>88</v>
       </c>
       <c r="P11" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3406,7 +3436,7 @@
         <v>1.4</v>
       </c>
       <c r="AT11">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3507,7 +3537,7 @@
         <v>85</v>
       </c>
       <c r="P12" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="Q12">
         <v>6</v>
@@ -3698,7 +3728,7 @@
         <v>85</v>
       </c>
       <c r="P13" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="Q13">
         <v>4</v>
@@ -3785,10 +3815,10 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT13">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3976,10 +4006,10 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT14">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -4361,7 +4391,7 @@
         <v>1.5</v>
       </c>
       <c r="AT16">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4462,7 +4492,7 @@
         <v>90</v>
       </c>
       <c r="P17" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -4740,7 +4770,7 @@
         <v>3</v>
       </c>
       <c r="AS18">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT18">
         <v>1.36</v>
@@ -4844,7 +4874,7 @@
         <v>92</v>
       </c>
       <c r="P19" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -5122,7 +5152,7 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT20">
         <v>0.14</v>
@@ -5507,7 +5537,7 @@
         <v>1.93</v>
       </c>
       <c r="AT22">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AU22">
         <v>1.44</v>
@@ -5608,7 +5638,7 @@
         <v>85</v>
       </c>
       <c r="P23" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="Q23">
         <v>8</v>
@@ -5886,7 +5916,7 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AT24">
         <v>1.07</v>
@@ -6080,7 +6110,7 @@
         <v>1.43</v>
       </c>
       <c r="AT25">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU25">
         <v>1.53</v>
@@ -6268,10 +6298,10 @@
         <v>1</v>
       </c>
       <c r="AS26">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT26">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AU26">
         <v>0.93</v>
@@ -6459,10 +6489,10 @@
         <v>3</v>
       </c>
       <c r="AS27">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT27">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AU27">
         <v>1.85</v>
@@ -6650,10 +6680,10 @@
         <v>3</v>
       </c>
       <c r="AS28">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AT28">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU28">
         <v>1.14</v>
@@ -6945,7 +6975,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -7032,10 +7062,10 @@
         <v>0</v>
       </c>
       <c r="AS30">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AT30">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AU30">
         <v>1.43</v>
@@ -7608,7 +7638,7 @@
         <v>1.5</v>
       </c>
       <c r="AT33">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AU33">
         <v>1.53</v>
@@ -7799,7 +7829,7 @@
         <v>2</v>
       </c>
       <c r="AT34">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AU34">
         <v>2.07</v>
@@ -7987,7 +8017,7 @@
         <v>1.5</v>
       </c>
       <c r="AS35">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT35">
         <v>1.36</v>
@@ -8091,7 +8121,7 @@
         <v>105</v>
       </c>
       <c r="P36" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="Q36">
         <v>6</v>
@@ -8181,7 +8211,7 @@
         <v>0.64</v>
       </c>
       <c r="AT36">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AU36">
         <v>1.06</v>
@@ -8282,7 +8312,7 @@
         <v>106</v>
       </c>
       <c r="P37" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="Q37">
         <v>9</v>
@@ -8369,7 +8399,7 @@
         <v>0</v>
       </c>
       <c r="AS37">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AT37">
         <v>0.14</v>
@@ -8664,7 +8694,7 @@
         <v>85</v>
       </c>
       <c r="P39" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="Q39">
         <v>1</v>
@@ -9046,7 +9076,7 @@
         <v>89</v>
       </c>
       <c r="P41" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="Q41">
         <v>13</v>
@@ -9327,7 +9357,7 @@
         <v>2.43</v>
       </c>
       <c r="AT42">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AU42">
         <v>2.06</v>
@@ -9515,10 +9545,10 @@
         <v>0</v>
       </c>
       <c r="AS43">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT43">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU43">
         <v>1.27</v>
@@ -9619,7 +9649,7 @@
         <v>85</v>
       </c>
       <c r="P44" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="Q44">
         <v>4</v>
@@ -10001,7 +10031,7 @@
         <v>85</v>
       </c>
       <c r="P46" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="Q46">
         <v>1</v>
@@ -10088,10 +10118,10 @@
         <v>0</v>
       </c>
       <c r="AS46">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AT46">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AU46">
         <v>1.31</v>
@@ -10192,7 +10222,7 @@
         <v>112</v>
       </c>
       <c r="P47" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="Q47">
         <v>11</v>
@@ -10279,10 +10309,10 @@
         <v>1.5</v>
       </c>
       <c r="AS47">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AT47">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU47">
         <v>1.22</v>
@@ -10470,7 +10500,7 @@
         <v>0</v>
       </c>
       <c r="AS48">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT48">
         <v>1.07</v>
@@ -10661,10 +10691,10 @@
         <v>2</v>
       </c>
       <c r="AS49">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT49">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AU49">
         <v>2.2</v>
@@ -10765,7 +10795,7 @@
         <v>114</v>
       </c>
       <c r="P50" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="Q50">
         <v>5</v>
@@ -10855,7 +10885,7 @@
         <v>2.43</v>
       </c>
       <c r="AT50">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU50">
         <v>2.06</v>
@@ -11529,7 +11559,7 @@
         <v>85</v>
       </c>
       <c r="P54" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="Q54">
         <v>8</v>
@@ -11616,10 +11646,10 @@
         <v>0.33</v>
       </c>
       <c r="AS54">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT54">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AU54">
         <v>1.36</v>
@@ -11911,7 +11941,7 @@
         <v>118</v>
       </c>
       <c r="P56" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="Q56">
         <v>6</v>
@@ -12001,7 +12031,7 @@
         <v>1.5</v>
       </c>
       <c r="AT56">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AU56">
         <v>1.55</v>
@@ -12102,7 +12132,7 @@
         <v>119</v>
       </c>
       <c r="P57" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12189,7 +12219,7 @@
         <v>0</v>
       </c>
       <c r="AS57">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AT57">
         <v>0.64</v>
@@ -12380,10 +12410,10 @@
         <v>0.33</v>
       </c>
       <c r="AS58">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AT58">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AU58">
         <v>2.38</v>
@@ -12574,7 +12604,7 @@
         <v>2</v>
       </c>
       <c r="AT59">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AU59">
         <v>1.89</v>
@@ -12675,7 +12705,7 @@
         <v>121</v>
       </c>
       <c r="P60" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="Q60">
         <v>6</v>
@@ -12762,7 +12792,7 @@
         <v>0</v>
       </c>
       <c r="AS60">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT60">
         <v>1.07</v>
@@ -13147,7 +13177,7 @@
         <v>2.14</v>
       </c>
       <c r="AT62">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU62">
         <v>2.23</v>
@@ -13248,7 +13278,7 @@
         <v>124</v>
       </c>
       <c r="P63" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="Q63">
         <v>7</v>
@@ -13335,10 +13365,10 @@
         <v>1</v>
       </c>
       <c r="AS63">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT63">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AU63">
         <v>1.92</v>
@@ -13526,7 +13556,7 @@
         <v>0</v>
       </c>
       <c r="AS64">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT64">
         <v>0.14</v>
@@ -13720,7 +13750,7 @@
         <v>1.4</v>
       </c>
       <c r="AT65">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU65">
         <v>1.27</v>
@@ -13908,7 +13938,7 @@
         <v>1</v>
       </c>
       <c r="AS66">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AT66">
         <v>0.79</v>
@@ -14102,7 +14132,7 @@
         <v>2.43</v>
       </c>
       <c r="AT67">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AU67">
         <v>2.39</v>
@@ -14203,7 +14233,7 @@
         <v>129</v>
       </c>
       <c r="P68" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="Q68">
         <v>9</v>
@@ -14293,7 +14323,7 @@
         <v>2</v>
       </c>
       <c r="AT68">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AU68">
         <v>1.87</v>
@@ -14394,7 +14424,7 @@
         <v>130</v>
       </c>
       <c r="P69" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="Q69">
         <v>4</v>
@@ -14672,7 +14702,7 @@
         <v>1.5</v>
       </c>
       <c r="AS70">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AT70">
         <v>1.29</v>
@@ -14776,7 +14806,7 @@
         <v>132</v>
       </c>
       <c r="P71" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="Q71">
         <v>2</v>
@@ -14863,7 +14893,7 @@
         <v>0.75</v>
       </c>
       <c r="AS71">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT71">
         <v>0.64</v>
@@ -15054,7 +15084,7 @@
         <v>1.5</v>
       </c>
       <c r="AS72">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT72">
         <v>1</v>
@@ -15248,7 +15278,7 @@
         <v>2.07</v>
       </c>
       <c r="AT73">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AU73">
         <v>1.78</v>
@@ -15349,7 +15379,7 @@
         <v>135</v>
       </c>
       <c r="P74" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="Q74">
         <v>7</v>
@@ -15439,7 +15469,7 @@
         <v>1.93</v>
       </c>
       <c r="AT74">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AU74">
         <v>1.98</v>
@@ -15627,7 +15657,7 @@
         <v>1</v>
       </c>
       <c r="AS75">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AT75">
         <v>1.36</v>
@@ -15818,7 +15848,7 @@
         <v>0</v>
       </c>
       <c r="AS76">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AT76">
         <v>0.14</v>
@@ -15922,7 +15952,7 @@
         <v>138</v>
       </c>
       <c r="P77" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="Q77">
         <v>4</v>
@@ -16009,10 +16039,10 @@
         <v>1.5</v>
       </c>
       <c r="AS77">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT77">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU77">
         <v>1.38</v>
@@ -16113,7 +16143,7 @@
         <v>139</v>
       </c>
       <c r="P78" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="Q78">
         <v>3</v>
@@ -16203,7 +16233,7 @@
         <v>2.14</v>
       </c>
       <c r="AT78">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AU78">
         <v>2.07</v>
@@ -16304,7 +16334,7 @@
         <v>140</v>
       </c>
       <c r="P79" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="Q79">
         <v>8</v>
@@ -16391,7 +16421,7 @@
         <v>1</v>
       </c>
       <c r="AS79">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT79">
         <v>1.21</v>
@@ -16495,7 +16525,7 @@
         <v>85</v>
       </c>
       <c r="P80" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="Q80">
         <v>6</v>
@@ -16585,7 +16615,7 @@
         <v>1.4</v>
       </c>
       <c r="AT80">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AU80">
         <v>1.29</v>
@@ -16877,7 +16907,7 @@
         <v>142</v>
       </c>
       <c r="P82" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="Q82">
         <v>5</v>
@@ -16967,7 +16997,7 @@
         <v>0.64</v>
       </c>
       <c r="AT82">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AU82">
         <v>1.27</v>
@@ -17349,7 +17379,7 @@
         <v>1.4</v>
       </c>
       <c r="AT84">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AU84">
         <v>1.23</v>
@@ -17450,7 +17480,7 @@
         <v>145</v>
       </c>
       <c r="P85" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="Q85">
         <v>15</v>
@@ -17537,10 +17567,10 @@
         <v>2.2</v>
       </c>
       <c r="AS85">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT85">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AU85">
         <v>1.8</v>
@@ -17728,7 +17758,7 @@
         <v>1.2</v>
       </c>
       <c r="AS86">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT86">
         <v>1</v>
@@ -17832,7 +17862,7 @@
         <v>147</v>
       </c>
       <c r="P87" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="Q87">
         <v>0</v>
@@ -17919,10 +17949,10 @@
         <v>0.4</v>
       </c>
       <c r="AS87">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AT87">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AU87">
         <v>1.5</v>
@@ -18023,7 +18053,7 @@
         <v>148</v>
       </c>
       <c r="P88" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="Q88">
         <v>9</v>
@@ -18110,7 +18140,7 @@
         <v>0.8</v>
       </c>
       <c r="AS88">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AT88">
         <v>0.79</v>
@@ -18214,7 +18244,7 @@
         <v>149</v>
       </c>
       <c r="P89" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="Q89">
         <v>17</v>
@@ -18686,7 +18716,7 @@
         <v>1.93</v>
       </c>
       <c r="AT91">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU91">
         <v>2.04</v>
@@ -18787,7 +18817,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="Q92">
         <v>1</v>
@@ -18874,10 +18904,10 @@
         <v>1.33</v>
       </c>
       <c r="AS92">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AT92">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AU92">
         <v>1.4</v>
@@ -19259,7 +19289,7 @@
         <v>0.64</v>
       </c>
       <c r="AT94">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU94">
         <v>1.24</v>
@@ -19638,7 +19668,7 @@
         <v>0.67</v>
       </c>
       <c r="AS96">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT96">
         <v>1.07</v>
@@ -19742,7 +19772,7 @@
         <v>85</v>
       </c>
       <c r="P97" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="Q97">
         <v>10</v>
@@ -19829,10 +19859,10 @@
         <v>0.83</v>
       </c>
       <c r="AS97">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT97">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AU97">
         <v>2.13</v>
@@ -20211,7 +20241,7 @@
         <v>0.6</v>
       </c>
       <c r="AS99">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AT99">
         <v>0.64</v>
@@ -20506,7 +20536,7 @@
         <v>158</v>
       </c>
       <c r="P101" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="Q101">
         <v>8</v>
@@ -20697,7 +20727,7 @@
         <v>159</v>
       </c>
       <c r="P102" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="Q102">
         <v>9</v>
@@ -20784,10 +20814,10 @@
         <v>1.33</v>
       </c>
       <c r="AS102">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AT102">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AU102">
         <v>2.3</v>
@@ -20888,7 +20918,7 @@
         <v>160</v>
       </c>
       <c r="P103" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="Q103">
         <v>14</v>
@@ -20975,10 +21005,10 @@
         <v>2</v>
       </c>
       <c r="AS103">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT103">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AU103">
         <v>1.29</v>
@@ -21169,7 +21199,7 @@
         <v>2.07</v>
       </c>
       <c r="AT104">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AU104">
         <v>1.76</v>
@@ -21357,7 +21387,7 @@
         <v>1.5</v>
       </c>
       <c r="AS105">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT105">
         <v>1.29</v>
@@ -21461,7 +21491,7 @@
         <v>162</v>
       </c>
       <c r="P106" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="Q106">
         <v>4</v>
@@ -21652,7 +21682,7 @@
         <v>85</v>
       </c>
       <c r="P107" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="Q107">
         <v>1</v>
@@ -21742,7 +21772,7 @@
         <v>0.64</v>
       </c>
       <c r="AT107">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AU107">
         <v>1.27</v>
@@ -21843,7 +21873,7 @@
         <v>85</v>
       </c>
       <c r="P108" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="Q108">
         <v>7</v>
@@ -21930,10 +21960,10 @@
         <v>1.14</v>
       </c>
       <c r="AS108">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT108">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AU108">
         <v>1.96</v>
@@ -22225,7 +22255,7 @@
         <v>164</v>
       </c>
       <c r="P110" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="Q110">
         <v>5</v>
@@ -22312,7 +22342,7 @@
         <v>1.17</v>
       </c>
       <c r="AS110">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AT110">
         <v>1.36</v>
@@ -22506,7 +22536,7 @@
         <v>2</v>
       </c>
       <c r="AT111">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU111">
         <v>1.96</v>
@@ -22885,7 +22915,7 @@
         <v>1</v>
       </c>
       <c r="AS113">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT113">
         <v>1.21</v>
@@ -22989,7 +23019,7 @@
         <v>97</v>
       </c>
       <c r="P114" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="Q114">
         <v>2</v>
@@ -23076,10 +23106,10 @@
         <v>2.14</v>
       </c>
       <c r="AS114">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AT114">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AU114">
         <v>1.32</v>
@@ -23267,10 +23297,10 @@
         <v>0.17</v>
       </c>
       <c r="AS115">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT115">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU115">
         <v>1.5</v>
@@ -23461,7 +23491,7 @@
         <v>1.93</v>
       </c>
       <c r="AT116">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AU116">
         <v>2.18</v>
@@ -23649,7 +23679,7 @@
         <v>0.43</v>
       </c>
       <c r="AS117">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT117">
         <v>0.64</v>
@@ -23944,7 +23974,7 @@
         <v>169</v>
       </c>
       <c r="P119" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="Q119">
         <v>2</v>
@@ -24034,7 +24064,7 @@
         <v>1.5</v>
       </c>
       <c r="AT119">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AU119">
         <v>1.41</v>
@@ -24135,7 +24165,7 @@
         <v>112</v>
       </c>
       <c r="P120" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="Q120">
         <v>3</v>
@@ -24225,7 +24255,7 @@
         <v>2.14</v>
       </c>
       <c r="AT120">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AU120">
         <v>2.06</v>
@@ -24517,7 +24547,7 @@
         <v>85</v>
       </c>
       <c r="P122" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="Q122">
         <v>4</v>
@@ -24604,7 +24634,7 @@
         <v>1.5</v>
       </c>
       <c r="AS122">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT122">
         <v>1.5</v>
@@ -24708,7 +24738,7 @@
         <v>85</v>
       </c>
       <c r="P123" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="Q123">
         <v>7</v>
@@ -24795,7 +24825,7 @@
         <v>1.29</v>
       </c>
       <c r="AS123">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT123">
         <v>1.29</v>
@@ -24989,7 +25019,7 @@
         <v>1.4</v>
       </c>
       <c r="AT124">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU124">
         <v>1.36</v>
@@ -25090,7 +25120,7 @@
         <v>171</v>
       </c>
       <c r="P125" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="Q125">
         <v>6</v>
@@ -25177,7 +25207,7 @@
         <v>0.57</v>
       </c>
       <c r="AS125">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AT125">
         <v>0.79</v>
@@ -25281,7 +25311,7 @@
         <v>172</v>
       </c>
       <c r="P126" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="Q126">
         <v>7</v>
@@ -25368,7 +25398,7 @@
         <v>0.5</v>
       </c>
       <c r="AS126">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT126">
         <v>1.07</v>
@@ -25472,7 +25502,7 @@
         <v>173</v>
       </c>
       <c r="P127" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="Q127">
         <v>6</v>
@@ -25559,10 +25589,10 @@
         <v>2.25</v>
       </c>
       <c r="AS127">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AT127">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AU127">
         <v>2.22</v>
@@ -25663,7 +25693,7 @@
         <v>85</v>
       </c>
       <c r="P128" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="Q128">
         <v>6</v>
@@ -25941,7 +25971,7 @@
         <v>1.14</v>
       </c>
       <c r="AS129">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AT129">
         <v>1</v>
@@ -26132,7 +26162,7 @@
         <v>0.38</v>
       </c>
       <c r="AS130">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT130">
         <v>0.64</v>
@@ -26236,7 +26266,7 @@
         <v>176</v>
       </c>
       <c r="P131" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="Q131">
         <v>6</v>
@@ -26326,7 +26356,7 @@
         <v>1.43</v>
       </c>
       <c r="AT131">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AU131">
         <v>1.55</v>
@@ -26517,7 +26547,7 @@
         <v>2.07</v>
       </c>
       <c r="AT132">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AU132">
         <v>1.62</v>
@@ -26705,7 +26735,7 @@
         <v>0.14</v>
       </c>
       <c r="AS133">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT133">
         <v>0.14</v>
@@ -26899,7 +26929,7 @@
         <v>1.5</v>
       </c>
       <c r="AT134">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AU134">
         <v>1.43</v>
@@ -27087,7 +27117,7 @@
         <v>0.75</v>
       </c>
       <c r="AS135">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT135">
         <v>1.21</v>
@@ -27281,7 +27311,7 @@
         <v>2.14</v>
       </c>
       <c r="AT136">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU136">
         <v>1.95</v>
@@ -27382,7 +27412,7 @@
         <v>85</v>
       </c>
       <c r="P137" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="Q137">
         <v>2</v>
@@ -27469,7 +27499,7 @@
         <v>1.5</v>
       </c>
       <c r="AS137">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT137">
         <v>1.29</v>
@@ -27663,7 +27693,7 @@
         <v>0.64</v>
       </c>
       <c r="AT138">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AU138">
         <v>1.25</v>
@@ -27764,7 +27794,7 @@
         <v>180</v>
       </c>
       <c r="P139" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="Q139">
         <v>8</v>
@@ -27955,7 +27985,7 @@
         <v>181</v>
       </c>
       <c r="P140" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="Q140">
         <v>2</v>
@@ -28045,7 +28075,7 @@
         <v>2.43</v>
       </c>
       <c r="AT140">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU140">
         <v>2.32</v>
@@ -28337,7 +28367,7 @@
         <v>183</v>
       </c>
       <c r="P142" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="Q142">
         <v>5</v>
@@ -28528,7 +28558,7 @@
         <v>184</v>
       </c>
       <c r="P143" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="Q143">
         <v>6</v>
@@ -28615,7 +28645,7 @@
         <v>1</v>
       </c>
       <c r="AS143">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AT143">
         <v>1</v>
@@ -28997,7 +29027,7 @@
         <v>1.71</v>
       </c>
       <c r="AS145">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AT145">
         <v>1.5</v>
@@ -29101,7 +29131,7 @@
         <v>185</v>
       </c>
       <c r="P146" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="Q146">
         <v>2</v>
@@ -29188,10 +29218,10 @@
         <v>1.33</v>
       </c>
       <c r="AS146">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT146">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AU146">
         <v>1.5</v>
@@ -29379,10 +29409,10 @@
         <v>1.22</v>
       </c>
       <c r="AS147">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT147">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AU147">
         <v>1.5</v>
@@ -29483,7 +29513,7 @@
         <v>187</v>
       </c>
       <c r="P148" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="Q148">
         <v>2</v>
@@ -29674,7 +29704,7 @@
         <v>188</v>
       </c>
       <c r="P149" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="Q149">
         <v>10</v>
@@ -29761,10 +29791,10 @@
         <v>0.25</v>
       </c>
       <c r="AS149">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AT149">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU149">
         <v>1.38</v>
@@ -29865,7 +29895,7 @@
         <v>189</v>
       </c>
       <c r="P150" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="Q150">
         <v>6</v>
@@ -29952,10 +29982,10 @@
         <v>1.33</v>
       </c>
       <c r="AS150">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT150">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AU150">
         <v>1.85</v>
@@ -30337,7 +30367,7 @@
         <v>1.43</v>
       </c>
       <c r="AT152">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AU152">
         <v>1.58</v>
@@ -30525,7 +30555,7 @@
         <v>0.33</v>
       </c>
       <c r="AS153">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT153">
         <v>0.64</v>
@@ -30820,7 +30850,7 @@
         <v>193</v>
       </c>
       <c r="P155" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="Q155">
         <v>5</v>
@@ -31011,7 +31041,7 @@
         <v>105</v>
       </c>
       <c r="P156" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="Q156">
         <v>11</v>
@@ -31098,7 +31128,7 @@
         <v>1</v>
       </c>
       <c r="AS156">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT156">
         <v>1</v>
@@ -31289,10 +31319,10 @@
         <v>1</v>
       </c>
       <c r="AS157">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AT157">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AU157">
         <v>1.71</v>
@@ -31393,7 +31423,7 @@
         <v>195</v>
       </c>
       <c r="P158" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="Q158">
         <v>4</v>
@@ -31865,7 +31895,7 @@
         <v>1.93</v>
       </c>
       <c r="AT160">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU160">
         <v>2.31</v>
@@ -32247,7 +32277,7 @@
         <v>1.43</v>
       </c>
       <c r="AT162">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AU162">
         <v>1.5</v>
@@ -32348,7 +32378,7 @@
         <v>197</v>
       </c>
       <c r="P163" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="Q163">
         <v>10</v>
@@ -32730,7 +32760,7 @@
         <v>199</v>
       </c>
       <c r="P165" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="Q165">
         <v>5</v>
@@ -32817,10 +32847,10 @@
         <v>1.2</v>
       </c>
       <c r="AS165">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AT165">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AU165">
         <v>2.16</v>
@@ -32921,7 +32951,7 @@
         <v>200</v>
       </c>
       <c r="P166" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="Q166">
         <v>6</v>
@@ -33008,7 +33038,7 @@
         <v>1.5</v>
       </c>
       <c r="AS166">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT166">
         <v>1.29</v>
@@ -33112,7 +33142,7 @@
         <v>201</v>
       </c>
       <c r="P167" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="Q167">
         <v>10</v>
@@ -33202,7 +33232,7 @@
         <v>1.5</v>
       </c>
       <c r="AT167">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU167">
         <v>1.33</v>
@@ -33581,7 +33611,7 @@
         <v>1.78</v>
       </c>
       <c r="AS169">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT169">
         <v>1.5</v>
@@ -33685,7 +33715,7 @@
         <v>203</v>
       </c>
       <c r="P170" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="Q170">
         <v>12</v>
@@ -34154,10 +34184,10 @@
         <v>1.45</v>
       </c>
       <c r="AS172">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT172">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AU172">
         <v>2.25</v>
@@ -34258,7 +34288,7 @@
         <v>85</v>
       </c>
       <c r="P173" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="Q173">
         <v>3</v>
@@ -34345,7 +34375,7 @@
         <v>0.73</v>
       </c>
       <c r="AS173">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AT173">
         <v>1.21</v>
@@ -34449,7 +34479,7 @@
         <v>204</v>
       </c>
       <c r="P174" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="Q174">
         <v>7</v>
@@ -34727,10 +34757,10 @@
         <v>1.5</v>
       </c>
       <c r="AS175">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT175">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AU175">
         <v>1.53</v>
@@ -34831,7 +34861,7 @@
         <v>102</v>
       </c>
       <c r="P176" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="Q176">
         <v>7</v>
@@ -34921,7 +34951,7 @@
         <v>2.07</v>
       </c>
       <c r="AT176">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AU176">
         <v>1.62</v>
@@ -35022,7 +35052,7 @@
         <v>90</v>
       </c>
       <c r="P177" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="Q177">
         <v>4</v>
@@ -35109,10 +35139,10 @@
         <v>0.5</v>
       </c>
       <c r="AS177">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AT177">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU177">
         <v>1.67</v>
@@ -35213,7 +35243,7 @@
         <v>100</v>
       </c>
       <c r="P178" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="Q178">
         <v>3</v>
@@ -35404,7 +35434,7 @@
         <v>206</v>
       </c>
       <c r="P179" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="Q179">
         <v>3</v>
@@ -35491,10 +35521,10 @@
         <v>1.1</v>
       </c>
       <c r="AS179">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT179">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU179">
         <v>1.87</v>
@@ -35873,7 +35903,7 @@
         <v>0.09</v>
       </c>
       <c r="AS181">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT181">
         <v>0.14</v>
@@ -36064,10 +36094,10 @@
         <v>0.91</v>
       </c>
       <c r="AS182">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AT182">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AU182">
         <v>2.13</v>
@@ -36168,7 +36198,7 @@
         <v>209</v>
       </c>
       <c r="P183" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="Q183">
         <v>7</v>
@@ -36258,7 +36288,7 @@
         <v>0.64</v>
       </c>
       <c r="AT183">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AU183">
         <v>1.27</v>
@@ -36550,7 +36580,7 @@
         <v>97</v>
       </c>
       <c r="P185" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="Q185">
         <v>7</v>
@@ -37022,7 +37052,7 @@
         <v>1.4</v>
       </c>
       <c r="AT187">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AU187">
         <v>1.45</v>
@@ -37123,7 +37153,7 @@
         <v>172</v>
       </c>
       <c r="P188" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="Q188">
         <v>4</v>
@@ -37210,7 +37240,7 @@
         <v>0.91</v>
       </c>
       <c r="AS188">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AT188">
         <v>1</v>
@@ -37401,10 +37431,10 @@
         <v>2.09</v>
       </c>
       <c r="AS189">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT189">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AU189">
         <v>1.54</v>
@@ -37505,7 +37535,7 @@
         <v>212</v>
       </c>
       <c r="P190" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="Q190">
         <v>13</v>
@@ -37595,7 +37625,7 @@
         <v>1.43</v>
       </c>
       <c r="AT190">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AU190">
         <v>1.52</v>
@@ -37786,7 +37816,7 @@
         <v>2.07</v>
       </c>
       <c r="AT191">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU191">
         <v>1.63</v>
@@ -38078,7 +38108,7 @@
         <v>215</v>
       </c>
       <c r="P193" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="Q193">
         <v>4</v>
@@ -38165,7 +38195,7 @@
         <v>0.92</v>
       </c>
       <c r="AS193">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AT193">
         <v>1.21</v>
@@ -38359,7 +38389,7 @@
         <v>1.4</v>
       </c>
       <c r="AT194">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AU194">
         <v>1.47</v>
@@ -38460,7 +38490,7 @@
         <v>85</v>
       </c>
       <c r="P195" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="Q195">
         <v>7</v>
@@ -38547,10 +38577,10 @@
         <v>1.09</v>
       </c>
       <c r="AS195">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AT195">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU195">
         <v>2.12</v>
@@ -38651,7 +38681,7 @@
         <v>216</v>
       </c>
       <c r="P196" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="Q196">
         <v>3</v>
@@ -38738,7 +38768,7 @@
         <v>1.5</v>
       </c>
       <c r="AS196">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AT196">
         <v>1.29</v>
@@ -39123,7 +39153,7 @@
         <v>2</v>
       </c>
       <c r="AT198">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU198">
         <v>1.94</v>
@@ -39314,7 +39344,7 @@
         <v>2.43</v>
       </c>
       <c r="AT199">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AU199">
         <v>2.12</v>
@@ -39415,7 +39445,7 @@
         <v>218</v>
       </c>
       <c r="P200" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="Q200">
         <v>7</v>
@@ -39502,7 +39532,7 @@
         <v>1.25</v>
       </c>
       <c r="AS200">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT200">
         <v>1.36</v>
@@ -39693,7 +39723,7 @@
         <v>0.73</v>
       </c>
       <c r="AS201">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT201">
         <v>0.79</v>
@@ -39884,7 +39914,7 @@
         <v>0.42</v>
       </c>
       <c r="AS202">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AT202">
         <v>0.64</v>
@@ -40179,7 +40209,7 @@
         <v>221</v>
       </c>
       <c r="P204" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="Q204">
         <v>8</v>
@@ -40370,7 +40400,7 @@
         <v>162</v>
       </c>
       <c r="P205" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="Q205">
         <v>5</v>
@@ -40460,7 +40490,7 @@
         <v>1.5</v>
       </c>
       <c r="AT205">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU205">
         <v>1.37</v>
@@ -40752,7 +40782,7 @@
         <v>158</v>
       </c>
       <c r="P207" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="Q207">
         <v>9</v>
@@ -40842,7 +40872,7 @@
         <v>2.43</v>
       </c>
       <c r="AT207">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AU207">
         <v>2.11</v>
@@ -40943,7 +40973,7 @@
         <v>85</v>
       </c>
       <c r="P208" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="Q208">
         <v>6</v>
@@ -41030,7 +41060,7 @@
         <v>1.5</v>
       </c>
       <c r="AS208">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT208">
         <v>1.5</v>
@@ -41134,7 +41164,7 @@
         <v>223</v>
       </c>
       <c r="P209" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="Q209">
         <v>5</v>
@@ -41221,10 +41251,10 @@
         <v>1.25</v>
       </c>
       <c r="AS209">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AT209">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AU209">
         <v>1.63</v>
@@ -41325,7 +41355,7 @@
         <v>224</v>
       </c>
       <c r="P210" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="Q210">
         <v>6</v>
@@ -41415,7 +41445,7 @@
         <v>2</v>
       </c>
       <c r="AT210">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AU210">
         <v>1.96</v>
@@ -41516,7 +41546,7 @@
         <v>85</v>
       </c>
       <c r="P211" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="Q211">
         <v>7</v>
@@ -41603,7 +41633,7 @@
         <v>1.08</v>
       </c>
       <c r="AS211">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT211">
         <v>1.21</v>
@@ -41794,10 +41824,10 @@
         <v>0.62</v>
       </c>
       <c r="AS212">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT212">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU212">
         <v>1.8</v>
@@ -41898,7 +41928,7 @@
         <v>149</v>
       </c>
       <c r="P213" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="Q213">
         <v>6</v>
@@ -41985,7 +42015,7 @@
         <v>0.92</v>
       </c>
       <c r="AS213">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AT213">
         <v>1.07</v>
@@ -42089,7 +42119,7 @@
         <v>226</v>
       </c>
       <c r="P214" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="Q214">
         <v>6</v>
@@ -42280,7 +42310,7 @@
         <v>105</v>
       </c>
       <c r="P215" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="Q215">
         <v>4</v>
@@ -42471,7 +42501,7 @@
         <v>227</v>
       </c>
       <c r="P216" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="Q216">
         <v>4</v>
@@ -42561,7 +42591,7 @@
         <v>1.93</v>
       </c>
       <c r="AT216">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AU216">
         <v>2.24</v>
@@ -42749,10 +42779,10 @@
         <v>0.85</v>
       </c>
       <c r="AS217">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT217">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AU217">
         <v>2.21</v>
@@ -42853,7 +42883,7 @@
         <v>177</v>
       </c>
       <c r="P218" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="Q218">
         <v>9</v>
@@ -43044,7 +43074,7 @@
         <v>228</v>
       </c>
       <c r="P219" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="Q219">
         <v>3</v>
@@ -43131,7 +43161,7 @@
         <v>1.62</v>
       </c>
       <c r="AS219">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AT219">
         <v>1.5</v>
@@ -43325,7 +43355,7 @@
         <v>2.14</v>
       </c>
       <c r="AT220">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AU220">
         <v>2.25</v>
@@ -43617,7 +43647,7 @@
         <v>172</v>
       </c>
       <c r="P222" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="Q222">
         <v>7</v>
@@ -43898,7 +43928,7 @@
         <v>1.43</v>
       </c>
       <c r="AT223">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU223">
         <v>1.47</v>
@@ -44086,7 +44116,7 @@
         <v>0.85</v>
       </c>
       <c r="AS224">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT224">
         <v>0.79</v>
@@ -44277,10 +44307,10 @@
         <v>1.46</v>
       </c>
       <c r="AS225">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AT225">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AU225">
         <v>1.6</v>
@@ -44523,6 +44553,1343 @@
       </c>
       <c r="BK226">
         <v>9</v>
+      </c>
+    </row>
+    <row r="227" spans="1:63">
+      <c r="A227" s="1">
+        <v>226</v>
+      </c>
+      <c r="B227">
+        <v>1568606</v>
+      </c>
+      <c r="C227" t="s">
+        <v>63</v>
+      </c>
+      <c r="D227" t="s">
+        <v>64</v>
+      </c>
+      <c r="E227" s="2">
+        <v>44864.45833333334</v>
+      </c>
+      <c r="F227">
+        <v>29</v>
+      </c>
+      <c r="G227" t="s">
+        <v>73</v>
+      </c>
+      <c r="H227" t="s">
+        <v>68</v>
+      </c>
+      <c r="I227">
+        <v>1</v>
+      </c>
+      <c r="J227">
+        <v>1</v>
+      </c>
+      <c r="K227">
+        <v>2</v>
+      </c>
+      <c r="L227">
+        <v>2</v>
+      </c>
+      <c r="M227">
+        <v>3</v>
+      </c>
+      <c r="N227">
+        <v>5</v>
+      </c>
+      <c r="O227" t="s">
+        <v>233</v>
+      </c>
+      <c r="P227" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q227">
+        <v>2</v>
+      </c>
+      <c r="R227">
+        <v>3</v>
+      </c>
+      <c r="S227">
+        <v>5</v>
+      </c>
+      <c r="T227">
+        <v>4.51</v>
+      </c>
+      <c r="U227">
+        <v>2.51</v>
+      </c>
+      <c r="V227">
+        <v>2.39</v>
+      </c>
+      <c r="W227">
+        <v>1.3</v>
+      </c>
+      <c r="X227">
+        <v>3.4</v>
+      </c>
+      <c r="Y227">
+        <v>2.49</v>
+      </c>
+      <c r="Z227">
+        <v>1.57</v>
+      </c>
+      <c r="AA227">
+        <v>5.5</v>
+      </c>
+      <c r="AB227">
+        <v>1.13</v>
+      </c>
+      <c r="AC227">
+        <v>3.95</v>
+      </c>
+      <c r="AD227">
+        <v>3.75</v>
+      </c>
+      <c r="AE227">
+        <v>1.88</v>
+      </c>
+      <c r="AF227">
+        <v>1.03</v>
+      </c>
+      <c r="AG227">
+        <v>17.25</v>
+      </c>
+      <c r="AH227">
+        <v>1.19</v>
+      </c>
+      <c r="AI227">
+        <v>4.57</v>
+      </c>
+      <c r="AJ227">
+        <v>1.6</v>
+      </c>
+      <c r="AK227">
+        <v>2.35</v>
+      </c>
+      <c r="AL227">
+        <v>1.59</v>
+      </c>
+      <c r="AM227">
+        <v>2.29</v>
+      </c>
+      <c r="AN227">
+        <v>1.97</v>
+      </c>
+      <c r="AO227">
+        <v>1.24</v>
+      </c>
+      <c r="AP227">
+        <v>1.24</v>
+      </c>
+      <c r="AQ227">
+        <v>0.86</v>
+      </c>
+      <c r="AR227">
+        <v>0.86</v>
+      </c>
+      <c r="AS227">
+        <v>0.8</v>
+      </c>
+      <c r="AT227">
+        <v>1</v>
+      </c>
+      <c r="AU227">
+        <v>1.38</v>
+      </c>
+      <c r="AV227">
+        <v>1.23</v>
+      </c>
+      <c r="AW227">
+        <v>2.61</v>
+      </c>
+      <c r="AX227">
+        <v>3.1</v>
+      </c>
+      <c r="AY227">
+        <v>8</v>
+      </c>
+      <c r="AZ227">
+        <v>1.5</v>
+      </c>
+      <c r="BA227">
+        <v>1.13</v>
+      </c>
+      <c r="BB227">
+        <v>1.25</v>
+      </c>
+      <c r="BC227">
+        <v>1.43</v>
+      </c>
+      <c r="BD227">
+        <v>1.74</v>
+      </c>
+      <c r="BE227">
+        <v>2.2</v>
+      </c>
+      <c r="BF227">
+        <v>5</v>
+      </c>
+      <c r="BG227">
+        <v>6</v>
+      </c>
+      <c r="BH227">
+        <v>1</v>
+      </c>
+      <c r="BI227">
+        <v>17</v>
+      </c>
+      <c r="BJ227">
+        <v>6</v>
+      </c>
+      <c r="BK227">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="228" spans="1:63">
+      <c r="A228" s="1">
+        <v>227</v>
+      </c>
+      <c r="B228">
+        <v>1568605</v>
+      </c>
+      <c r="C228" t="s">
+        <v>63</v>
+      </c>
+      <c r="D228" t="s">
+        <v>64</v>
+      </c>
+      <c r="E228" s="2">
+        <v>44864.45833333334</v>
+      </c>
+      <c r="F228">
+        <v>29</v>
+      </c>
+      <c r="G228" t="s">
+        <v>77</v>
+      </c>
+      <c r="H228" t="s">
+        <v>78</v>
+      </c>
+      <c r="I228">
+        <v>0</v>
+      </c>
+      <c r="J228">
+        <v>1</v>
+      </c>
+      <c r="K228">
+        <v>1</v>
+      </c>
+      <c r="L228">
+        <v>1</v>
+      </c>
+      <c r="M228">
+        <v>2</v>
+      </c>
+      <c r="N228">
+        <v>3</v>
+      </c>
+      <c r="O228" t="s">
+        <v>234</v>
+      </c>
+      <c r="P228" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q228">
+        <v>5</v>
+      </c>
+      <c r="R228">
+        <v>8</v>
+      </c>
+      <c r="S228">
+        <v>13</v>
+      </c>
+      <c r="T228">
+        <v>4.24</v>
+      </c>
+      <c r="U228">
+        <v>2.22</v>
+      </c>
+      <c r="V228">
+        <v>2.83</v>
+      </c>
+      <c r="W228">
+        <v>1.43</v>
+      </c>
+      <c r="X228">
+        <v>2.94</v>
+      </c>
+      <c r="Y228">
+        <v>3.12</v>
+      </c>
+      <c r="Z228">
+        <v>1.39</v>
+      </c>
+      <c r="AA228">
+        <v>7.6</v>
+      </c>
+      <c r="AB228">
+        <v>1.07</v>
+      </c>
+      <c r="AC228">
+        <v>3.5</v>
+      </c>
+      <c r="AD228">
+        <v>3.3</v>
+      </c>
+      <c r="AE228">
+        <v>2.16</v>
+      </c>
+      <c r="AF228">
+        <v>1.05</v>
+      </c>
+      <c r="AG228">
+        <v>10.75</v>
+      </c>
+      <c r="AH228">
+        <v>1.3</v>
+      </c>
+      <c r="AI228">
+        <v>3.23</v>
+      </c>
+      <c r="AJ228">
+        <v>2.16</v>
+      </c>
+      <c r="AK228">
+        <v>1.7</v>
+      </c>
+      <c r="AL228">
+        <v>1.83</v>
+      </c>
+      <c r="AM228">
+        <v>2.01</v>
+      </c>
+      <c r="AN228">
+        <v>1.76</v>
+      </c>
+      <c r="AO228">
+        <v>1.35</v>
+      </c>
+      <c r="AP228">
+        <v>1.3</v>
+      </c>
+      <c r="AQ228">
+        <v>1.5</v>
+      </c>
+      <c r="AR228">
+        <v>1.36</v>
+      </c>
+      <c r="AS228">
+        <v>1.4</v>
+      </c>
+      <c r="AT228">
+        <v>1.47</v>
+      </c>
+      <c r="AU228">
+        <v>1.57</v>
+      </c>
+      <c r="AV228">
+        <v>1.73</v>
+      </c>
+      <c r="AW228">
+        <v>3.3</v>
+      </c>
+      <c r="AX228">
+        <v>2.7</v>
+      </c>
+      <c r="AY228">
+        <v>7.5</v>
+      </c>
+      <c r="AZ228">
+        <v>1.62</v>
+      </c>
+      <c r="BA228">
+        <v>1.17</v>
+      </c>
+      <c r="BB228">
+        <v>1.26</v>
+      </c>
+      <c r="BC228">
+        <v>1.48</v>
+      </c>
+      <c r="BD228">
+        <v>1.8</v>
+      </c>
+      <c r="BE228">
+        <v>2.35</v>
+      </c>
+      <c r="BF228">
+        <v>4</v>
+      </c>
+      <c r="BG228">
+        <v>9</v>
+      </c>
+      <c r="BH228">
+        <v>10</v>
+      </c>
+      <c r="BI228">
+        <v>7</v>
+      </c>
+      <c r="BJ228">
+        <v>14</v>
+      </c>
+      <c r="BK228">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="229" spans="1:63">
+      <c r="A229" s="1">
+        <v>228</v>
+      </c>
+      <c r="B229">
+        <v>1568603</v>
+      </c>
+      <c r="C229" t="s">
+        <v>63</v>
+      </c>
+      <c r="D229" t="s">
+        <v>64</v>
+      </c>
+      <c r="E229" s="2">
+        <v>44864.45833333334</v>
+      </c>
+      <c r="F229">
+        <v>29</v>
+      </c>
+      <c r="G229" t="s">
+        <v>67</v>
+      </c>
+      <c r="H229" t="s">
+        <v>66</v>
+      </c>
+      <c r="I229">
+        <v>0</v>
+      </c>
+      <c r="J229">
+        <v>3</v>
+      </c>
+      <c r="K229">
+        <v>3</v>
+      </c>
+      <c r="L229">
+        <v>0</v>
+      </c>
+      <c r="M229">
+        <v>4</v>
+      </c>
+      <c r="N229">
+        <v>4</v>
+      </c>
+      <c r="O229" t="s">
+        <v>85</v>
+      </c>
+      <c r="P229" t="s">
+        <v>333</v>
+      </c>
+      <c r="Q229">
+        <v>6</v>
+      </c>
+      <c r="R229">
+        <v>11</v>
+      </c>
+      <c r="S229">
+        <v>17</v>
+      </c>
+      <c r="T229">
+        <v>4.05</v>
+      </c>
+      <c r="U229">
+        <v>2.36</v>
+      </c>
+      <c r="V229">
+        <v>2.71</v>
+      </c>
+      <c r="W229">
+        <v>1.36</v>
+      </c>
+      <c r="X229">
+        <v>3.3</v>
+      </c>
+      <c r="Y229">
+        <v>2.74</v>
+      </c>
+      <c r="Z229">
+        <v>1.48</v>
+      </c>
+      <c r="AA229">
+        <v>6.35</v>
+      </c>
+      <c r="AB229">
+        <v>1.1</v>
+      </c>
+      <c r="AC229">
+        <v>3.9</v>
+      </c>
+      <c r="AD229">
+        <v>3.45</v>
+      </c>
+      <c r="AE229">
+        <v>1.98</v>
+      </c>
+      <c r="AF229">
+        <v>1.03</v>
+      </c>
+      <c r="AG229">
+        <v>13.5</v>
+      </c>
+      <c r="AH229">
+        <v>1.22</v>
+      </c>
+      <c r="AI229">
+        <v>3.92</v>
+      </c>
+      <c r="AJ229">
+        <v>1.85</v>
+      </c>
+      <c r="AK229">
+        <v>1.95</v>
+      </c>
+      <c r="AL229">
+        <v>1.67</v>
+      </c>
+      <c r="AM229">
+        <v>2.25</v>
+      </c>
+      <c r="AN229">
+        <v>1.79</v>
+      </c>
+      <c r="AO229">
+        <v>1.33</v>
+      </c>
+      <c r="AP229">
+        <v>1.31</v>
+      </c>
+      <c r="AQ229">
+        <v>1.71</v>
+      </c>
+      <c r="AR229">
+        <v>2.14</v>
+      </c>
+      <c r="AS229">
+        <v>1.6</v>
+      </c>
+      <c r="AT229">
+        <v>2.2</v>
+      </c>
+      <c r="AU229">
+        <v>1.56</v>
+      </c>
+      <c r="AV229">
+        <v>1.94</v>
+      </c>
+      <c r="AW229">
+        <v>3.5</v>
+      </c>
+      <c r="AX229">
+        <v>3.1</v>
+      </c>
+      <c r="AY229">
+        <v>8</v>
+      </c>
+      <c r="AZ229">
+        <v>1.49</v>
+      </c>
+      <c r="BA229">
+        <v>1.14</v>
+      </c>
+      <c r="BB229">
+        <v>1.2</v>
+      </c>
+      <c r="BC229">
+        <v>1.41</v>
+      </c>
+      <c r="BD229">
+        <v>1.67</v>
+      </c>
+      <c r="BE229">
+        <v>2.1</v>
+      </c>
+      <c r="BF229">
+        <v>5</v>
+      </c>
+      <c r="BG229">
+        <v>9</v>
+      </c>
+      <c r="BH229">
+        <v>15</v>
+      </c>
+      <c r="BI229">
+        <v>8</v>
+      </c>
+      <c r="BJ229">
+        <v>20</v>
+      </c>
+      <c r="BK229">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="230" spans="1:63">
+      <c r="A230" s="1">
+        <v>229</v>
+      </c>
+      <c r="B230">
+        <v>1568601</v>
+      </c>
+      <c r="C230" t="s">
+        <v>63</v>
+      </c>
+      <c r="D230" t="s">
+        <v>64</v>
+      </c>
+      <c r="E230" s="2">
+        <v>44864.5625</v>
+      </c>
+      <c r="F230">
+        <v>29</v>
+      </c>
+      <c r="G230" t="s">
+        <v>65</v>
+      </c>
+      <c r="H230" t="s">
+        <v>70</v>
+      </c>
+      <c r="I230">
+        <v>1</v>
+      </c>
+      <c r="J230">
+        <v>0</v>
+      </c>
+      <c r="K230">
+        <v>1</v>
+      </c>
+      <c r="L230">
+        <v>4</v>
+      </c>
+      <c r="M230">
+        <v>2</v>
+      </c>
+      <c r="N230">
+        <v>6</v>
+      </c>
+      <c r="O230" t="s">
+        <v>235</v>
+      </c>
+      <c r="P230" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q230">
+        <v>7</v>
+      </c>
+      <c r="R230">
+        <v>7</v>
+      </c>
+      <c r="S230">
+        <v>14</v>
+      </c>
+      <c r="T230">
+        <v>2.16</v>
+      </c>
+      <c r="U230">
+        <v>2.53</v>
+      </c>
+      <c r="V230">
+        <v>5.51</v>
+      </c>
+      <c r="W230">
+        <v>1.34</v>
+      </c>
+      <c r="X230">
+        <v>3.37</v>
+      </c>
+      <c r="Y230">
+        <v>2.56</v>
+      </c>
+      <c r="Z230">
+        <v>1.54</v>
+      </c>
+      <c r="AA230">
+        <v>5.7</v>
+      </c>
+      <c r="AB230">
+        <v>1.13</v>
+      </c>
+      <c r="AC230">
+        <v>1.55</v>
+      </c>
+      <c r="AD230">
+        <v>4.3</v>
+      </c>
+      <c r="AE230">
+        <v>5.5</v>
+      </c>
+      <c r="AF230">
+        <v>1.03</v>
+      </c>
+      <c r="AG230">
+        <v>16</v>
+      </c>
+      <c r="AH230">
+        <v>1.2</v>
+      </c>
+      <c r="AI230">
+        <v>4.18</v>
+      </c>
+      <c r="AJ230">
+        <v>1.62</v>
+      </c>
+      <c r="AK230">
+        <v>2.16</v>
+      </c>
+      <c r="AL230">
+        <v>1.73</v>
+      </c>
+      <c r="AM230">
+        <v>2.05</v>
+      </c>
+      <c r="AN230">
+        <v>1.14</v>
+      </c>
+      <c r="AO230">
+        <v>1.21</v>
+      </c>
+      <c r="AP230">
+        <v>2.41</v>
+      </c>
+      <c r="AQ230">
+        <v>2.07</v>
+      </c>
+      <c r="AR230">
+        <v>1.36</v>
+      </c>
+      <c r="AS230">
+        <v>2.13</v>
+      </c>
+      <c r="AT230">
+        <v>1.27</v>
+      </c>
+      <c r="AU230">
+        <v>2.21</v>
+      </c>
+      <c r="AV230">
+        <v>1.57</v>
+      </c>
+      <c r="AW230">
+        <v>3.78</v>
+      </c>
+      <c r="AX230">
+        <v>1.25</v>
+      </c>
+      <c r="AY230">
+        <v>9.5</v>
+      </c>
+      <c r="AZ230">
+        <v>4.8</v>
+      </c>
+      <c r="BA230">
+        <v>1.17</v>
+      </c>
+      <c r="BB230">
+        <v>1.27</v>
+      </c>
+      <c r="BC230">
+        <v>1.45</v>
+      </c>
+      <c r="BD230">
+        <v>1.8</v>
+      </c>
+      <c r="BE230">
+        <v>2.28</v>
+      </c>
+      <c r="BF230">
+        <v>7</v>
+      </c>
+      <c r="BG230">
+        <v>4</v>
+      </c>
+      <c r="BH230">
+        <v>11</v>
+      </c>
+      <c r="BI230">
+        <v>5</v>
+      </c>
+      <c r="BJ230">
+        <v>18</v>
+      </c>
+      <c r="BK230">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="231" spans="1:63">
+      <c r="A231" s="1">
+        <v>230</v>
+      </c>
+      <c r="B231">
+        <v>1568607</v>
+      </c>
+      <c r="C231" t="s">
+        <v>63</v>
+      </c>
+      <c r="D231" t="s">
+        <v>64</v>
+      </c>
+      <c r="E231" s="2">
+        <v>44864.5625</v>
+      </c>
+      <c r="F231">
+        <v>29</v>
+      </c>
+      <c r="G231" t="s">
+        <v>76</v>
+      </c>
+      <c r="H231" t="s">
+        <v>80</v>
+      </c>
+      <c r="I231">
+        <v>0</v>
+      </c>
+      <c r="J231">
+        <v>1</v>
+      </c>
+      <c r="K231">
+        <v>1</v>
+      </c>
+      <c r="L231">
+        <v>2</v>
+      </c>
+      <c r="M231">
+        <v>5</v>
+      </c>
+      <c r="N231">
+        <v>7</v>
+      </c>
+      <c r="O231" t="s">
+        <v>236</v>
+      </c>
+      <c r="P231" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q231">
+        <v>2</v>
+      </c>
+      <c r="R231">
+        <v>3</v>
+      </c>
+      <c r="S231">
+        <v>5</v>
+      </c>
+      <c r="T231">
+        <v>4.44</v>
+      </c>
+      <c r="U231">
+        <v>2.37</v>
+      </c>
+      <c r="V231">
+        <v>2.55</v>
+      </c>
+      <c r="W231">
+        <v>1.35</v>
+      </c>
+      <c r="X231">
+        <v>3.1</v>
+      </c>
+      <c r="Y231">
+        <v>2.6</v>
+      </c>
+      <c r="Z231">
+        <v>1.47</v>
+      </c>
+      <c r="AA231">
+        <v>6.3</v>
+      </c>
+      <c r="AB231">
+        <v>1.1</v>
+      </c>
+      <c r="AC231">
+        <v>3.6</v>
+      </c>
+      <c r="AD231">
+        <v>3.6</v>
+      </c>
+      <c r="AE231">
+        <v>1.91</v>
+      </c>
+      <c r="AF231">
+        <v>1.03</v>
+      </c>
+      <c r="AG231">
+        <v>13.75</v>
+      </c>
+      <c r="AH231">
+        <v>1.22</v>
+      </c>
+      <c r="AI231">
+        <v>3.85</v>
+      </c>
+      <c r="AJ231">
+        <v>1.72</v>
+      </c>
+      <c r="AK231">
+        <v>2</v>
+      </c>
+      <c r="AL231">
+        <v>1.74</v>
+      </c>
+      <c r="AM231">
+        <v>2.14</v>
+      </c>
+      <c r="AN231">
+        <v>1.94</v>
+      </c>
+      <c r="AO231">
+        <v>1.3</v>
+      </c>
+      <c r="AP231">
+        <v>1.27</v>
+      </c>
+      <c r="AQ231">
+        <v>1.21</v>
+      </c>
+      <c r="AR231">
+        <v>1.07</v>
+      </c>
+      <c r="AS231">
+        <v>1.13</v>
+      </c>
+      <c r="AT231">
+        <v>1.2</v>
+      </c>
+      <c r="AU231">
+        <v>1.55</v>
+      </c>
+      <c r="AV231">
+        <v>1.85</v>
+      </c>
+      <c r="AW231">
+        <v>3.4</v>
+      </c>
+      <c r="AX231">
+        <v>2.88</v>
+      </c>
+      <c r="AY231">
+        <v>7.5</v>
+      </c>
+      <c r="AZ231">
+        <v>1.57</v>
+      </c>
+      <c r="BA231">
+        <v>1.18</v>
+      </c>
+      <c r="BB231">
+        <v>1.38</v>
+      </c>
+      <c r="BC231">
+        <v>1.55</v>
+      </c>
+      <c r="BD231">
+        <v>1.98</v>
+      </c>
+      <c r="BE231">
+        <v>2.5</v>
+      </c>
+      <c r="BF231">
+        <v>5</v>
+      </c>
+      <c r="BG231">
+        <v>7</v>
+      </c>
+      <c r="BH231">
+        <v>11</v>
+      </c>
+      <c r="BI231">
+        <v>6</v>
+      </c>
+      <c r="BJ231">
+        <v>16</v>
+      </c>
+      <c r="BK231">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="232" spans="1:63">
+      <c r="A232" s="1">
+        <v>231</v>
+      </c>
+      <c r="B232">
+        <v>1568602</v>
+      </c>
+      <c r="C232" t="s">
+        <v>63</v>
+      </c>
+      <c r="D232" t="s">
+        <v>64</v>
+      </c>
+      <c r="E232" s="2">
+        <v>44865.625</v>
+      </c>
+      <c r="F232">
+        <v>29</v>
+      </c>
+      <c r="G232" t="s">
+        <v>71</v>
+      </c>
+      <c r="H232" t="s">
+        <v>75</v>
+      </c>
+      <c r="I232">
+        <v>1</v>
+      </c>
+      <c r="J232">
+        <v>0</v>
+      </c>
+      <c r="K232">
+        <v>1</v>
+      </c>
+      <c r="L232">
+        <v>3</v>
+      </c>
+      <c r="M232">
+        <v>0</v>
+      </c>
+      <c r="N232">
+        <v>3</v>
+      </c>
+      <c r="O232" t="s">
+        <v>237</v>
+      </c>
+      <c r="P232" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q232">
+        <v>11</v>
+      </c>
+      <c r="R232">
+        <v>5</v>
+      </c>
+      <c r="S232">
+        <v>16</v>
+      </c>
+      <c r="T232">
+        <v>1.8</v>
+      </c>
+      <c r="U232">
+        <v>2.7</v>
+      </c>
+      <c r="V232">
+        <v>6.5</v>
+      </c>
+      <c r="W232">
+        <v>1.26</v>
+      </c>
+      <c r="X232">
+        <v>3.75</v>
+      </c>
+      <c r="Y232">
+        <v>2.25</v>
+      </c>
+      <c r="Z232">
+        <v>1.63</v>
+      </c>
+      <c r="AA232">
+        <v>5</v>
+      </c>
+      <c r="AB232">
+        <v>1.16</v>
+      </c>
+      <c r="AC232">
+        <v>1.29</v>
+      </c>
+      <c r="AD232">
+        <v>5.75</v>
+      </c>
+      <c r="AE232">
+        <v>9</v>
+      </c>
+      <c r="AF232">
+        <v>1.01</v>
+      </c>
+      <c r="AG232">
+        <v>21</v>
+      </c>
+      <c r="AH232">
+        <v>1.16</v>
+      </c>
+      <c r="AI232">
+        <v>5.5</v>
+      </c>
+      <c r="AJ232">
+        <v>1.5</v>
+      </c>
+      <c r="AK232">
+        <v>2.4</v>
+      </c>
+      <c r="AL232">
+        <v>1.8</v>
+      </c>
+      <c r="AM232">
+        <v>2</v>
+      </c>
+      <c r="AN232">
+        <v>1.06</v>
+      </c>
+      <c r="AO232">
+        <v>1.12</v>
+      </c>
+      <c r="AP232">
+        <v>3.3</v>
+      </c>
+      <c r="AQ232">
+        <v>1.86</v>
+      </c>
+      <c r="AR232">
+        <v>0.57</v>
+      </c>
+      <c r="AS232">
+        <v>1.93</v>
+      </c>
+      <c r="AT232">
+        <v>0.53</v>
+      </c>
+      <c r="AU232">
+        <v>2.07</v>
+      </c>
+      <c r="AV232">
+        <v>1.34</v>
+      </c>
+      <c r="AW232">
+        <v>3.41</v>
+      </c>
+      <c r="AX232">
+        <v>1.18</v>
+      </c>
+      <c r="AY232">
+        <v>10.5</v>
+      </c>
+      <c r="AZ232">
+        <v>6.1</v>
+      </c>
+      <c r="BA232">
+        <v>1.16</v>
+      </c>
+      <c r="BB232">
+        <v>1.25</v>
+      </c>
+      <c r="BC232">
+        <v>1.49</v>
+      </c>
+      <c r="BD232">
+        <v>1.85</v>
+      </c>
+      <c r="BE232">
+        <v>2.35</v>
+      </c>
+      <c r="BF232">
+        <v>7</v>
+      </c>
+      <c r="BG232">
+        <v>4</v>
+      </c>
+      <c r="BH232">
+        <v>18</v>
+      </c>
+      <c r="BI232">
+        <v>9</v>
+      </c>
+      <c r="BJ232">
+        <v>25</v>
+      </c>
+      <c r="BK232">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="233" spans="1:63">
+      <c r="A233" s="1">
+        <v>232</v>
+      </c>
+      <c r="B233">
+        <v>1568604</v>
+      </c>
+      <c r="C233" t="s">
+        <v>63</v>
+      </c>
+      <c r="D233" t="s">
+        <v>64</v>
+      </c>
+      <c r="E233" s="2">
+        <v>44865.63194444445</v>
+      </c>
+      <c r="F233">
+        <v>29</v>
+      </c>
+      <c r="G233" t="s">
+        <v>69</v>
+      </c>
+      <c r="H233" t="s">
+        <v>72</v>
+      </c>
+      <c r="I233">
+        <v>0</v>
+      </c>
+      <c r="J233">
+        <v>0</v>
+      </c>
+      <c r="K233">
+        <v>0</v>
+      </c>
+      <c r="L233">
+        <v>0</v>
+      </c>
+      <c r="M233">
+        <v>1</v>
+      </c>
+      <c r="N233">
+        <v>1</v>
+      </c>
+      <c r="O233" t="s">
+        <v>85</v>
+      </c>
+      <c r="P233" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q233">
+        <v>4</v>
+      </c>
+      <c r="R233">
+        <v>3</v>
+      </c>
+      <c r="S233">
+        <v>7</v>
+      </c>
+      <c r="T233">
+        <v>4.08</v>
+      </c>
+      <c r="U233">
+        <v>2.41</v>
+      </c>
+      <c r="V233">
+        <v>2.63</v>
+      </c>
+      <c r="W233">
+        <v>1.32</v>
+      </c>
+      <c r="X233">
+        <v>3.26</v>
+      </c>
+      <c r="Y233">
+        <v>2.62</v>
+      </c>
+      <c r="Z233">
+        <v>1.52</v>
+      </c>
+      <c r="AA233">
+        <v>5.9</v>
+      </c>
+      <c r="AB233">
+        <v>1.12</v>
+      </c>
+      <c r="AC233">
+        <v>3.2</v>
+      </c>
+      <c r="AD233">
+        <v>3.7</v>
+      </c>
+      <c r="AE233">
+        <v>2.01</v>
+      </c>
+      <c r="AF233">
+        <v>1.01</v>
+      </c>
+      <c r="AG233">
+        <v>11</v>
+      </c>
+      <c r="AH233">
+        <v>1.2</v>
+      </c>
+      <c r="AI233">
+        <v>4.1</v>
+      </c>
+      <c r="AJ233">
+        <v>1.66</v>
+      </c>
+      <c r="AK233">
+        <v>2.23</v>
+      </c>
+      <c r="AL233">
+        <v>1.65</v>
+      </c>
+      <c r="AM233">
+        <v>2.28</v>
+      </c>
+      <c r="AN233">
+        <v>1.86</v>
+      </c>
+      <c r="AO233">
+        <v>1.28</v>
+      </c>
+      <c r="AP233">
+        <v>1.32</v>
+      </c>
+      <c r="AQ233">
+        <v>1.36</v>
+      </c>
+      <c r="AR233">
+        <v>1.43</v>
+      </c>
+      <c r="AS233">
+        <v>1.27</v>
+      </c>
+      <c r="AT233">
+        <v>1.53</v>
+      </c>
+      <c r="AU233">
+        <v>1.8</v>
+      </c>
+      <c r="AV233">
+        <v>1.83</v>
+      </c>
+      <c r="AW233">
+        <v>3.63</v>
+      </c>
+      <c r="AX233">
+        <v>3.1</v>
+      </c>
+      <c r="AY233">
+        <v>8</v>
+      </c>
+      <c r="AZ233">
+        <v>1.53</v>
+      </c>
+      <c r="BA233">
+        <v>1.18</v>
+      </c>
+      <c r="BB233">
+        <v>1.32</v>
+      </c>
+      <c r="BC233">
+        <v>1.6</v>
+      </c>
+      <c r="BD233">
+        <v>2.02</v>
+      </c>
+      <c r="BE233">
+        <v>2.62</v>
+      </c>
+      <c r="BF233">
+        <v>3</v>
+      </c>
+      <c r="BG233">
+        <v>4</v>
+      </c>
+      <c r="BH233">
+        <v>9</v>
+      </c>
+      <c r="BI233">
+        <v>4</v>
+      </c>
+      <c r="BJ233">
+        <v>12</v>
+      </c>
+      <c r="BK233">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Sweden Allsvenskan_2022.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Sweden Allsvenskan_2022.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1455" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1503" uniqueCount="346">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -730,6 +730,21 @@
     <t>['42', '66', '77']</t>
   </si>
   <si>
+    <t>['18', '45', '59']</t>
+  </si>
+  <si>
+    <t>['53']</t>
+  </si>
+  <si>
+    <t>['82', '90+4']</t>
+  </si>
+  <si>
+    <t>['16', '59', '72', '79']</t>
+  </si>
+  <si>
+    <t>['18', '61']</t>
+  </si>
+  <si>
     <t>['19', '77']</t>
   </si>
   <si>
@@ -952,9 +967,6 @@
     <t>['17', '63']</t>
   </si>
   <si>
-    <t>['53']</t>
-  </si>
-  <si>
     <t>['11', '16', '87']</t>
   </si>
   <si>
@@ -1022,6 +1034,24 @@
   </si>
   <si>
     <t>['44', '52', '55', '64', '88']</t>
+  </si>
+  <si>
+    <t>['79']</t>
+  </si>
+  <si>
+    <t>['6', '32', '90+5']</t>
+  </si>
+  <si>
+    <t>['50', '79']</t>
+  </si>
+  <si>
+    <t>['30', '47', '62', '90+2']</t>
+  </si>
+  <si>
+    <t>['14', '22', '37']</t>
+  </si>
+  <si>
+    <t>['37', '64']</t>
   </si>
 </sst>
 </file>
@@ -1383,7 +1413,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK233"/>
+  <dimension ref="A1:BK241"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1818,7 +1848,7 @@
         <v>82</v>
       </c>
       <c r="P3" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="Q3">
         <v>10</v>
@@ -1905,7 +1935,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AT3">
         <v>1.47</v>
@@ -2287,10 +2317,10 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AT5">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2481,7 +2511,7 @@
         <v>1.27</v>
       </c>
       <c r="AT6">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2582,7 +2612,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -2669,7 +2699,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT7">
         <v>1.2</v>
@@ -2773,7 +2803,7 @@
         <v>85</v>
       </c>
       <c r="P8" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="Q8">
         <v>9</v>
@@ -2863,7 +2893,7 @@
         <v>1.93</v>
       </c>
       <c r="AT8">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -3051,10 +3081,10 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>2.43</v>
+        <v>2.27</v>
       </c>
       <c r="AT9">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -3155,7 +3185,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -3245,7 +3275,7 @@
         <v>0.8</v>
       </c>
       <c r="AT10">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3346,7 +3376,7 @@
         <v>88</v>
       </c>
       <c r="P11" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3537,7 +3567,7 @@
         <v>85</v>
       </c>
       <c r="P12" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="Q12">
         <v>6</v>
@@ -3624,10 +3654,10 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AT12">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3728,7 +3758,7 @@
         <v>85</v>
       </c>
       <c r="P13" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="Q13">
         <v>4</v>
@@ -4197,7 +4227,7 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AT15">
         <v>1</v>
@@ -4388,7 +4418,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT16">
         <v>1</v>
@@ -4492,7 +4522,7 @@
         <v>90</v>
       </c>
       <c r="P17" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -4579,10 +4609,10 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AT17">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4773,7 +4803,7 @@
         <v>2.13</v>
       </c>
       <c r="AT18">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AU18">
         <v>2.12</v>
@@ -4874,7 +4904,7 @@
         <v>92</v>
       </c>
       <c r="P19" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -4961,7 +4991,7 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>2.43</v>
+        <v>2.27</v>
       </c>
       <c r="AT19">
         <v>1</v>
@@ -5155,7 +5185,7 @@
         <v>1.13</v>
       </c>
       <c r="AT20">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AU20">
         <v>1.53</v>
@@ -5343,10 +5373,10 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT21">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU21">
         <v>1.18</v>
@@ -5534,7 +5564,7 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AT22">
         <v>1.47</v>
@@ -5638,7 +5668,7 @@
         <v>85</v>
       </c>
       <c r="P23" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="Q23">
         <v>8</v>
@@ -5725,10 +5755,10 @@
         <v>3</v>
       </c>
       <c r="AS23">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AT23">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU23">
         <v>2.34</v>
@@ -6107,7 +6137,7 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AT25">
         <v>0.53</v>
@@ -6871,10 +6901,10 @@
         <v>3</v>
       </c>
       <c r="AS29">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AT29">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AU29">
         <v>1.95</v>
@@ -6975,7 +7005,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -7256,7 +7286,7 @@
         <v>1.4</v>
       </c>
       <c r="AT31">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AU31">
         <v>0.73</v>
@@ -7444,10 +7474,10 @@
         <v>1</v>
       </c>
       <c r="AS32">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AT32">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU32">
         <v>1.36</v>
@@ -7635,7 +7665,7 @@
         <v>3</v>
       </c>
       <c r="AS33">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT33">
         <v>1.2</v>
@@ -7826,7 +7856,7 @@
         <v>0.5</v>
       </c>
       <c r="AS34">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AT34">
         <v>1.53</v>
@@ -8020,7 +8050,7 @@
         <v>1.13</v>
       </c>
       <c r="AT35">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AU35">
         <v>1.39</v>
@@ -8121,7 +8151,7 @@
         <v>105</v>
       </c>
       <c r="P36" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="Q36">
         <v>6</v>
@@ -8208,7 +8238,7 @@
         <v>2</v>
       </c>
       <c r="AS36">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AT36">
         <v>2.2</v>
@@ -8312,7 +8342,7 @@
         <v>106</v>
       </c>
       <c r="P37" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="Q37">
         <v>9</v>
@@ -8402,7 +8432,7 @@
         <v>1.93</v>
       </c>
       <c r="AT37">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AU37">
         <v>1.84</v>
@@ -8590,10 +8620,10 @@
         <v>0</v>
       </c>
       <c r="AS38">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT38">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU38">
         <v>1.36</v>
@@ -8694,7 +8724,7 @@
         <v>85</v>
       </c>
       <c r="P39" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="Q39">
         <v>1</v>
@@ -8781,10 +8811,10 @@
         <v>3</v>
       </c>
       <c r="AS39">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AT39">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AU39">
         <v>1.38</v>
@@ -8972,10 +9002,10 @@
         <v>3</v>
       </c>
       <c r="AS40">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AT40">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU40">
         <v>1.49</v>
@@ -9076,7 +9106,7 @@
         <v>89</v>
       </c>
       <c r="P41" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="Q41">
         <v>13</v>
@@ -9163,7 +9193,7 @@
         <v>0</v>
       </c>
       <c r="AS41">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT41">
         <v>1</v>
@@ -9354,7 +9384,7 @@
         <v>0.5</v>
       </c>
       <c r="AS42">
-        <v>2.43</v>
+        <v>2.27</v>
       </c>
       <c r="AT42">
         <v>1</v>
@@ -9649,7 +9679,7 @@
         <v>85</v>
       </c>
       <c r="P44" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="Q44">
         <v>4</v>
@@ -9739,7 +9769,7 @@
         <v>1.4</v>
       </c>
       <c r="AT44">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU44">
         <v>1.18</v>
@@ -9927,10 +9957,10 @@
         <v>1.5</v>
       </c>
       <c r="AS45">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AT45">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AU45">
         <v>1.91</v>
@@ -10031,7 +10061,7 @@
         <v>85</v>
       </c>
       <c r="P46" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="Q46">
         <v>1</v>
@@ -10222,7 +10252,7 @@
         <v>112</v>
       </c>
       <c r="P47" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="Q47">
         <v>11</v>
@@ -10795,7 +10825,7 @@
         <v>114</v>
       </c>
       <c r="P50" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="Q50">
         <v>5</v>
@@ -10882,7 +10912,7 @@
         <v>0</v>
       </c>
       <c r="AS50">
-        <v>2.43</v>
+        <v>2.27</v>
       </c>
       <c r="AT50">
         <v>0.53</v>
@@ -11073,10 +11103,10 @@
         <v>2</v>
       </c>
       <c r="AS51">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AT51">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU51">
         <v>1.78</v>
@@ -11264,10 +11294,10 @@
         <v>1.33</v>
       </c>
       <c r="AS52">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AT52">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AU52">
         <v>1.72</v>
@@ -11455,10 +11485,10 @@
         <v>3</v>
       </c>
       <c r="AS53">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT53">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AU53">
         <v>1.95</v>
@@ -11559,7 +11589,7 @@
         <v>85</v>
       </c>
       <c r="P54" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="Q54">
         <v>8</v>
@@ -11837,7 +11867,7 @@
         <v>1</v>
       </c>
       <c r="AS55">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AT55">
         <v>1</v>
@@ -11941,7 +11971,7 @@
         <v>118</v>
       </c>
       <c r="P56" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="Q56">
         <v>6</v>
@@ -12028,7 +12058,7 @@
         <v>1.67</v>
       </c>
       <c r="AS56">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT56">
         <v>2.2</v>
@@ -12132,7 +12162,7 @@
         <v>119</v>
       </c>
       <c r="P57" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12222,7 +12252,7 @@
         <v>0.8</v>
       </c>
       <c r="AT57">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU57">
         <v>1.21</v>
@@ -12601,7 +12631,7 @@
         <v>1.67</v>
       </c>
       <c r="AS59">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AT59">
         <v>1.2</v>
@@ -12705,7 +12735,7 @@
         <v>121</v>
       </c>
       <c r="P60" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="Q60">
         <v>6</v>
@@ -12983,10 +13013,10 @@
         <v>1.33</v>
       </c>
       <c r="AS61">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AT61">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU61">
         <v>1.09</v>
@@ -13174,7 +13204,7 @@
         <v>2</v>
       </c>
       <c r="AS62">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AT62">
         <v>1.27</v>
@@ -13278,7 +13308,7 @@
         <v>124</v>
       </c>
       <c r="P63" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="Q63">
         <v>7</v>
@@ -13559,7 +13589,7 @@
         <v>1.27</v>
       </c>
       <c r="AT64">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AU64">
         <v>1.87</v>
@@ -13941,7 +13971,7 @@
         <v>1.6</v>
       </c>
       <c r="AT66">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AU66">
         <v>1.55</v>
@@ -14129,7 +14159,7 @@
         <v>1.25</v>
       </c>
       <c r="AS67">
-        <v>2.43</v>
+        <v>2.27</v>
       </c>
       <c r="AT67">
         <v>1.2</v>
@@ -14233,7 +14263,7 @@
         <v>129</v>
       </c>
       <c r="P68" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="Q68">
         <v>9</v>
@@ -14320,7 +14350,7 @@
         <v>1</v>
       </c>
       <c r="AS68">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AT68">
         <v>1</v>
@@ -14424,7 +14454,7 @@
         <v>130</v>
       </c>
       <c r="P69" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="Q69">
         <v>4</v>
@@ -14511,7 +14541,7 @@
         <v>0.25</v>
       </c>
       <c r="AS69">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AT69">
         <v>1.07</v>
@@ -14705,7 +14735,7 @@
         <v>1.93</v>
       </c>
       <c r="AT70">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU70">
         <v>2.05</v>
@@ -14806,7 +14836,7 @@
         <v>132</v>
       </c>
       <c r="P71" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="Q71">
         <v>2</v>
@@ -14896,7 +14926,7 @@
         <v>1.13</v>
       </c>
       <c r="AT71">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU71">
         <v>1.41</v>
@@ -15275,7 +15305,7 @@
         <v>0.5</v>
       </c>
       <c r="AS73">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT73">
         <v>1.53</v>
@@ -15379,7 +15409,7 @@
         <v>135</v>
       </c>
       <c r="P74" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="Q74">
         <v>7</v>
@@ -15466,7 +15496,7 @@
         <v>2</v>
       </c>
       <c r="AS74">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AT74">
         <v>2.2</v>
@@ -15660,7 +15690,7 @@
         <v>0.8</v>
       </c>
       <c r="AT75">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AU75">
         <v>1.44</v>
@@ -15851,7 +15881,7 @@
         <v>1.6</v>
       </c>
       <c r="AT76">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AU76">
         <v>1.68</v>
@@ -15952,7 +15982,7 @@
         <v>138</v>
       </c>
       <c r="P77" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="Q77">
         <v>4</v>
@@ -16143,7 +16173,7 @@
         <v>139</v>
       </c>
       <c r="P78" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="Q78">
         <v>3</v>
@@ -16230,7 +16260,7 @@
         <v>1</v>
       </c>
       <c r="AS78">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AT78">
         <v>1</v>
@@ -16334,7 +16364,7 @@
         <v>140</v>
       </c>
       <c r="P79" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="Q79">
         <v>8</v>
@@ -16424,7 +16454,7 @@
         <v>1.27</v>
       </c>
       <c r="AT79">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU79">
         <v>2.24</v>
@@ -16525,7 +16555,7 @@
         <v>85</v>
       </c>
       <c r="P80" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="Q80">
         <v>6</v>
@@ -16803,10 +16833,10 @@
         <v>1</v>
       </c>
       <c r="AS81">
-        <v>2.43</v>
+        <v>2.27</v>
       </c>
       <c r="AT81">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AU81">
         <v>2.29</v>
@@ -16907,7 +16937,7 @@
         <v>142</v>
       </c>
       <c r="P82" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="Q82">
         <v>5</v>
@@ -16994,7 +17024,7 @@
         <v>1</v>
       </c>
       <c r="AS82">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AT82">
         <v>1.47</v>
@@ -17185,10 +17215,10 @@
         <v>2.25</v>
       </c>
       <c r="AS83">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT83">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AU83">
         <v>1.56</v>
@@ -17480,7 +17510,7 @@
         <v>145</v>
       </c>
       <c r="P85" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="Q85">
         <v>15</v>
@@ -17862,7 +17892,7 @@
         <v>147</v>
       </c>
       <c r="P87" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="Q87">
         <v>0</v>
@@ -18053,7 +18083,7 @@
         <v>148</v>
       </c>
       <c r="P88" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="Q88">
         <v>9</v>
@@ -18143,7 +18173,7 @@
         <v>1.93</v>
       </c>
       <c r="AT88">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AU88">
         <v>2.08</v>
@@ -18244,7 +18274,7 @@
         <v>149</v>
       </c>
       <c r="P89" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="Q89">
         <v>17</v>
@@ -18331,10 +18361,10 @@
         <v>1.2</v>
       </c>
       <c r="AS89">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AT89">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU89">
         <v>1.12</v>
@@ -18522,7 +18552,7 @@
         <v>0.8</v>
       </c>
       <c r="AS90">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT90">
         <v>1.07</v>
@@ -18713,7 +18743,7 @@
         <v>0.2</v>
       </c>
       <c r="AS91">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AT91">
         <v>0.53</v>
@@ -18817,7 +18847,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="Q92">
         <v>1</v>
@@ -19095,10 +19125,10 @@
         <v>0.8</v>
       </c>
       <c r="AS93">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AT93">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AU93">
         <v>1.99</v>
@@ -19286,7 +19316,7 @@
         <v>1.4</v>
       </c>
       <c r="AS94">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AT94">
         <v>1.27</v>
@@ -19477,10 +19507,10 @@
         <v>1.8</v>
       </c>
       <c r="AS95">
-        <v>2.43</v>
+        <v>2.27</v>
       </c>
       <c r="AT95">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AU95">
         <v>2.35</v>
@@ -19772,7 +19802,7 @@
         <v>85</v>
       </c>
       <c r="P97" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="Q97">
         <v>10</v>
@@ -20050,10 +20080,10 @@
         <v>1</v>
       </c>
       <c r="AS98">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AT98">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU98">
         <v>2</v>
@@ -20244,7 +20274,7 @@
         <v>1.6</v>
       </c>
       <c r="AT99">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU99">
         <v>1.79</v>
@@ -20432,10 +20462,10 @@
         <v>0.67</v>
       </c>
       <c r="AS100">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AT100">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AU100">
         <v>2.05</v>
@@ -20536,7 +20566,7 @@
         <v>158</v>
       </c>
       <c r="P101" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="Q101">
         <v>8</v>
@@ -20727,7 +20757,7 @@
         <v>159</v>
       </c>
       <c r="P102" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="Q102">
         <v>9</v>
@@ -20918,7 +20948,7 @@
         <v>160</v>
       </c>
       <c r="P103" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="Q103">
         <v>14</v>
@@ -21196,7 +21226,7 @@
         <v>1.14</v>
       </c>
       <c r="AS104">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT104">
         <v>1</v>
@@ -21390,7 +21420,7 @@
         <v>2.13</v>
       </c>
       <c r="AT105">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU105">
         <v>1.93</v>
@@ -21491,7 +21521,7 @@
         <v>162</v>
       </c>
       <c r="P106" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="Q106">
         <v>4</v>
@@ -21578,10 +21608,10 @@
         <v>0</v>
       </c>
       <c r="AS106">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT106">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AU106">
         <v>1.49</v>
@@ -21682,7 +21712,7 @@
         <v>85</v>
       </c>
       <c r="P107" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="Q107">
         <v>1</v>
@@ -21769,7 +21799,7 @@
         <v>0.83</v>
       </c>
       <c r="AS107">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AT107">
         <v>1.53</v>
@@ -21873,7 +21903,7 @@
         <v>85</v>
       </c>
       <c r="P108" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="Q108">
         <v>7</v>
@@ -22151,7 +22181,7 @@
         <v>0.57</v>
       </c>
       <c r="AS109">
-        <v>2.43</v>
+        <v>2.27</v>
       </c>
       <c r="AT109">
         <v>1.07</v>
@@ -22255,7 +22285,7 @@
         <v>164</v>
       </c>
       <c r="P110" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="Q110">
         <v>5</v>
@@ -22345,7 +22375,7 @@
         <v>1.6</v>
       </c>
       <c r="AT110">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AU110">
         <v>1.77</v>
@@ -22533,7 +22563,7 @@
         <v>1.33</v>
       </c>
       <c r="AS111">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AT111">
         <v>1.27</v>
@@ -22724,10 +22754,10 @@
         <v>0.5</v>
       </c>
       <c r="AS112">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AT112">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU112">
         <v>1.44</v>
@@ -22918,7 +22948,7 @@
         <v>2.13</v>
       </c>
       <c r="AT113">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU113">
         <v>2.02</v>
@@ -23019,7 +23049,7 @@
         <v>97</v>
       </c>
       <c r="P114" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="Q114">
         <v>2</v>
@@ -23488,7 +23518,7 @@
         <v>1.13</v>
       </c>
       <c r="AS116">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AT116">
         <v>1</v>
@@ -23682,7 +23712,7 @@
         <v>1.4</v>
       </c>
       <c r="AT117">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU117">
         <v>1.46</v>
@@ -23870,10 +23900,10 @@
         <v>0.17</v>
       </c>
       <c r="AS118">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AT118">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AU118">
         <v>1.2</v>
@@ -23974,7 +24004,7 @@
         <v>169</v>
       </c>
       <c r="P119" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="Q119">
         <v>2</v>
@@ -24061,7 +24091,7 @@
         <v>1.29</v>
       </c>
       <c r="AS119">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT119">
         <v>1.47</v>
@@ -24165,7 +24195,7 @@
         <v>112</v>
       </c>
       <c r="P120" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="Q120">
         <v>3</v>
@@ -24252,7 +24282,7 @@
         <v>1.14</v>
       </c>
       <c r="AS120">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AT120">
         <v>1.53</v>
@@ -24443,10 +24473,10 @@
         <v>0.86</v>
       </c>
       <c r="AS121">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT121">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU121">
         <v>1.74</v>
@@ -24547,7 +24577,7 @@
         <v>85</v>
       </c>
       <c r="P122" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="Q122">
         <v>4</v>
@@ -24637,7 +24667,7 @@
         <v>1.13</v>
       </c>
       <c r="AT122">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AU122">
         <v>1.53</v>
@@ -24738,7 +24768,7 @@
         <v>85</v>
       </c>
       <c r="P123" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="Q123">
         <v>7</v>
@@ -24828,7 +24858,7 @@
         <v>1.27</v>
       </c>
       <c r="AT123">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU123">
         <v>1.87</v>
@@ -25120,7 +25150,7 @@
         <v>171</v>
       </c>
       <c r="P125" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="Q125">
         <v>6</v>
@@ -25210,7 +25240,7 @@
         <v>0.8</v>
       </c>
       <c r="AT125">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AU125">
         <v>1.23</v>
@@ -25311,7 +25341,7 @@
         <v>172</v>
       </c>
       <c r="P126" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="Q126">
         <v>7</v>
@@ -25502,7 +25532,7 @@
         <v>173</v>
       </c>
       <c r="P127" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="Q127">
         <v>6</v>
@@ -25693,7 +25723,7 @@
         <v>85</v>
       </c>
       <c r="P128" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="Q128">
         <v>6</v>
@@ -25780,10 +25810,10 @@
         <v>1.14</v>
       </c>
       <c r="AS128">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AT128">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AU128">
         <v>1.62</v>
@@ -26165,7 +26195,7 @@
         <v>1.27</v>
       </c>
       <c r="AT130">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU130">
         <v>1.93</v>
@@ -26266,7 +26296,7 @@
         <v>176</v>
       </c>
       <c r="P131" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="Q131">
         <v>6</v>
@@ -26353,7 +26383,7 @@
         <v>1.38</v>
       </c>
       <c r="AS131">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AT131">
         <v>1.2</v>
@@ -26544,7 +26574,7 @@
         <v>1.5</v>
       </c>
       <c r="AS132">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT132">
         <v>1.47</v>
@@ -26738,7 +26768,7 @@
         <v>2.13</v>
       </c>
       <c r="AT133">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AU133">
         <v>2.15</v>
@@ -26926,7 +26956,7 @@
         <v>1.38</v>
       </c>
       <c r="AS134">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT134">
         <v>1.53</v>
@@ -27120,7 +27150,7 @@
         <v>1.4</v>
       </c>
       <c r="AT135">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU135">
         <v>1.49</v>
@@ -27308,7 +27338,7 @@
         <v>0.29</v>
       </c>
       <c r="AS136">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AT136">
         <v>0.53</v>
@@ -27412,7 +27442,7 @@
         <v>85</v>
       </c>
       <c r="P137" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="Q137">
         <v>2</v>
@@ -27502,7 +27532,7 @@
         <v>1.13</v>
       </c>
       <c r="AT137">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU137">
         <v>1.47</v>
@@ -27690,7 +27720,7 @@
         <v>1</v>
       </c>
       <c r="AS138">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AT138">
         <v>1</v>
@@ -27794,7 +27824,7 @@
         <v>180</v>
       </c>
       <c r="P139" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="Q139">
         <v>8</v>
@@ -27881,7 +27911,7 @@
         <v>0.78</v>
       </c>
       <c r="AS139">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AT139">
         <v>1.07</v>
@@ -27985,7 +28015,7 @@
         <v>181</v>
       </c>
       <c r="P140" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="Q140">
         <v>2</v>
@@ -28072,7 +28102,7 @@
         <v>1</v>
       </c>
       <c r="AS140">
-        <v>2.43</v>
+        <v>2.27</v>
       </c>
       <c r="AT140">
         <v>1.27</v>
@@ -28263,10 +28293,10 @@
         <v>0.13</v>
       </c>
       <c r="AS141">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AT141">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AU141">
         <v>2.25</v>
@@ -28367,7 +28397,7 @@
         <v>183</v>
       </c>
       <c r="P142" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="Q142">
         <v>5</v>
@@ -28457,7 +28487,7 @@
         <v>1.4</v>
       </c>
       <c r="AT142">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AU142">
         <v>1.32</v>
@@ -28558,7 +28588,7 @@
         <v>184</v>
       </c>
       <c r="P143" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="Q143">
         <v>6</v>
@@ -28836,10 +28866,10 @@
         <v>1.38</v>
       </c>
       <c r="AS144">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AT144">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AU144">
         <v>1.96</v>
@@ -29030,7 +29060,7 @@
         <v>1.6</v>
       </c>
       <c r="AT145">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AU145">
         <v>1.72</v>
@@ -29131,7 +29161,7 @@
         <v>185</v>
       </c>
       <c r="P146" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="Q146">
         <v>2</v>
@@ -29513,7 +29543,7 @@
         <v>187</v>
       </c>
       <c r="P148" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="Q148">
         <v>2</v>
@@ -29600,10 +29630,10 @@
         <v>0.78</v>
       </c>
       <c r="AS148">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT148">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU148">
         <v>1.39</v>
@@ -29704,7 +29734,7 @@
         <v>188</v>
       </c>
       <c r="P149" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="Q149">
         <v>10</v>
@@ -29895,7 +29925,7 @@
         <v>189</v>
       </c>
       <c r="P150" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="Q150">
         <v>6</v>
@@ -30173,10 +30203,10 @@
         <v>1.67</v>
       </c>
       <c r="AS151">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT151">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU151">
         <v>1.65</v>
@@ -30364,7 +30394,7 @@
         <v>2.11</v>
       </c>
       <c r="AS152">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AT152">
         <v>2.2</v>
@@ -30558,7 +30588,7 @@
         <v>2.13</v>
       </c>
       <c r="AT153">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU153">
         <v>2.28</v>
@@ -30746,7 +30776,7 @@
         <v>0.8</v>
       </c>
       <c r="AS154">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AT154">
         <v>1.07</v>
@@ -30850,7 +30880,7 @@
         <v>193</v>
       </c>
       <c r="P155" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="Q155">
         <v>5</v>
@@ -30940,7 +30970,7 @@
         <v>1.4</v>
       </c>
       <c r="AT155">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AU155">
         <v>1.34</v>
@@ -31041,7 +31071,7 @@
         <v>105</v>
       </c>
       <c r="P156" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="Q156">
         <v>11</v>
@@ -31423,7 +31453,7 @@
         <v>195</v>
       </c>
       <c r="P158" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="Q158">
         <v>4</v>
@@ -31510,10 +31540,10 @@
         <v>1.88</v>
       </c>
       <c r="AS158">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AT158">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AU158">
         <v>2.01</v>
@@ -31701,10 +31731,10 @@
         <v>1.22</v>
       </c>
       <c r="AS159">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AT159">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AU159">
         <v>1.28</v>
@@ -31892,7 +31922,7 @@
         <v>0.89</v>
       </c>
       <c r="AS160">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AT160">
         <v>1.27</v>
@@ -32083,10 +32113,10 @@
         <v>0.8</v>
       </c>
       <c r="AS161">
-        <v>2.43</v>
+        <v>2.27</v>
       </c>
       <c r="AT161">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU161">
         <v>2.18</v>
@@ -32274,7 +32304,7 @@
         <v>1.3</v>
       </c>
       <c r="AS162">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AT162">
         <v>1.53</v>
@@ -32378,7 +32408,7 @@
         <v>197</v>
       </c>
       <c r="P163" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="Q163">
         <v>10</v>
@@ -32465,10 +32495,10 @@
         <v>0.3</v>
       </c>
       <c r="AS163">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AT163">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU163">
         <v>2.13</v>
@@ -32656,10 +32686,10 @@
         <v>0.1</v>
       </c>
       <c r="AS164">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AT164">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AU164">
         <v>1.89</v>
@@ -32760,7 +32790,7 @@
         <v>199</v>
       </c>
       <c r="P165" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="Q165">
         <v>5</v>
@@ -32951,7 +32981,7 @@
         <v>200</v>
       </c>
       <c r="P166" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="Q166">
         <v>6</v>
@@ -33041,7 +33071,7 @@
         <v>1.4</v>
       </c>
       <c r="AT166">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU166">
         <v>1.49</v>
@@ -33142,7 +33172,7 @@
         <v>201</v>
       </c>
       <c r="P167" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="Q167">
         <v>10</v>
@@ -33229,7 +33259,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS167">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT167">
         <v>0.53</v>
@@ -33420,10 +33450,10 @@
         <v>0.89</v>
       </c>
       <c r="AS168">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT168">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AU168">
         <v>1.64</v>
@@ -33614,7 +33644,7 @@
         <v>1.27</v>
       </c>
       <c r="AT169">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AU169">
         <v>1.91</v>
@@ -33715,7 +33745,7 @@
         <v>203</v>
       </c>
       <c r="P170" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="Q170">
         <v>12</v>
@@ -33802,7 +33832,7 @@
         <v>0.73</v>
       </c>
       <c r="AS170">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AT170">
         <v>1.07</v>
@@ -33996,7 +34026,7 @@
         <v>1.4</v>
       </c>
       <c r="AT171">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AU171">
         <v>1.42</v>
@@ -34288,7 +34318,7 @@
         <v>85</v>
       </c>
       <c r="P173" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="Q173">
         <v>3</v>
@@ -34378,7 +34408,7 @@
         <v>0.8</v>
       </c>
       <c r="AT173">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU173">
         <v>1.37</v>
@@ -34479,7 +34509,7 @@
         <v>204</v>
       </c>
       <c r="P174" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="Q174">
         <v>7</v>
@@ -34566,7 +34596,7 @@
         <v>1</v>
       </c>
       <c r="AS174">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AT174">
         <v>1</v>
@@ -34861,7 +34891,7 @@
         <v>102</v>
       </c>
       <c r="P176" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="Q176">
         <v>7</v>
@@ -34948,7 +34978,7 @@
         <v>2.2</v>
       </c>
       <c r="AS176">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT176">
         <v>2.2</v>
@@ -35052,7 +35082,7 @@
         <v>90</v>
       </c>
       <c r="P177" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="Q177">
         <v>4</v>
@@ -35243,7 +35273,7 @@
         <v>100</v>
       </c>
       <c r="P178" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="Q178">
         <v>3</v>
@@ -35330,10 +35360,10 @@
         <v>1.6</v>
       </c>
       <c r="AS178">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AT178">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AU178">
         <v>2.22</v>
@@ -35434,7 +35464,7 @@
         <v>206</v>
       </c>
       <c r="P179" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="Q179">
         <v>3</v>
@@ -35712,10 +35742,10 @@
         <v>0.8</v>
       </c>
       <c r="AS180">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT180">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AU180">
         <v>1.39</v>
@@ -35906,7 +35936,7 @@
         <v>1.4</v>
       </c>
       <c r="AT181">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AU181">
         <v>1.55</v>
@@ -36198,7 +36228,7 @@
         <v>209</v>
       </c>
       <c r="P183" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="Q183">
         <v>7</v>
@@ -36285,7 +36315,7 @@
         <v>1.09</v>
       </c>
       <c r="AS183">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AT183">
         <v>1.2</v>
@@ -36476,10 +36506,10 @@
         <v>1.64</v>
       </c>
       <c r="AS184">
-        <v>2.43</v>
+        <v>2.27</v>
       </c>
       <c r="AT184">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU184">
         <v>2.12</v>
@@ -36580,7 +36610,7 @@
         <v>97</v>
       </c>
       <c r="P185" t="s">
-        <v>312</v>
+        <v>239</v>
       </c>
       <c r="Q185">
         <v>7</v>
@@ -36667,10 +36697,10 @@
         <v>0.36</v>
       </c>
       <c r="AS185">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AT185">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU185">
         <v>1.93</v>
@@ -36858,10 +36888,10 @@
         <v>1.55</v>
       </c>
       <c r="AS186">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AT186">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AU186">
         <v>2.32</v>
@@ -37153,7 +37183,7 @@
         <v>172</v>
       </c>
       <c r="P188" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="Q188">
         <v>4</v>
@@ -37535,7 +37565,7 @@
         <v>212</v>
       </c>
       <c r="P190" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="Q190">
         <v>13</v>
@@ -37622,7 +37652,7 @@
         <v>1.36</v>
       </c>
       <c r="AS190">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AT190">
         <v>1.47</v>
@@ -37813,7 +37843,7 @@
         <v>0.73</v>
       </c>
       <c r="AS191">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT191">
         <v>0.53</v>
@@ -38004,10 +38034,10 @@
         <v>1.36</v>
       </c>
       <c r="AS192">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT192">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AU192">
         <v>1.37</v>
@@ -38108,7 +38138,7 @@
         <v>215</v>
       </c>
       <c r="P193" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="Q193">
         <v>4</v>
@@ -38198,7 +38228,7 @@
         <v>1.6</v>
       </c>
       <c r="AT193">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU193">
         <v>1.66</v>
@@ -38490,7 +38520,7 @@
         <v>85</v>
       </c>
       <c r="P195" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="Q195">
         <v>7</v>
@@ -38681,7 +38711,7 @@
         <v>216</v>
       </c>
       <c r="P196" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="Q196">
         <v>3</v>
@@ -38771,7 +38801,7 @@
         <v>0.8</v>
       </c>
       <c r="AT196">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU196">
         <v>1.33</v>
@@ -38959,7 +38989,7 @@
         <v>0.92</v>
       </c>
       <c r="AS197">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AT197">
         <v>1.07</v>
@@ -39150,7 +39180,7 @@
         <v>0.67</v>
       </c>
       <c r="AS198">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AT198">
         <v>0.53</v>
@@ -39341,7 +39371,7 @@
         <v>2</v>
       </c>
       <c r="AS199">
-        <v>2.43</v>
+        <v>2.27</v>
       </c>
       <c r="AT199">
         <v>2.2</v>
@@ -39445,7 +39475,7 @@
         <v>218</v>
       </c>
       <c r="P200" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="Q200">
         <v>7</v>
@@ -39535,7 +39565,7 @@
         <v>1.27</v>
       </c>
       <c r="AT200">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AU200">
         <v>1.81</v>
@@ -39726,7 +39756,7 @@
         <v>2.13</v>
       </c>
       <c r="AT201">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AU201">
         <v>2.18</v>
@@ -39917,7 +39947,7 @@
         <v>1.93</v>
       </c>
       <c r="AT202">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU202">
         <v>2.06</v>
@@ -40105,10 +40135,10 @@
         <v>0.17</v>
       </c>
       <c r="AS203">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AT203">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AU203">
         <v>2.2</v>
@@ -40209,7 +40239,7 @@
         <v>221</v>
       </c>
       <c r="P204" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="Q204">
         <v>8</v>
@@ -40296,10 +40326,10 @@
         <v>0.67</v>
       </c>
       <c r="AS204">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AT204">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AU204">
         <v>1.3</v>
@@ -40400,7 +40430,7 @@
         <v>162</v>
       </c>
       <c r="P205" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="Q205">
         <v>5</v>
@@ -40487,7 +40517,7 @@
         <v>1.25</v>
       </c>
       <c r="AS205">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT205">
         <v>1.27</v>
@@ -40678,7 +40708,7 @@
         <v>1.08</v>
       </c>
       <c r="AS206">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AT206">
         <v>1</v>
@@ -40782,7 +40812,7 @@
         <v>158</v>
       </c>
       <c r="P207" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="Q207">
         <v>9</v>
@@ -40869,7 +40899,7 @@
         <v>1.33</v>
       </c>
       <c r="AS207">
-        <v>2.43</v>
+        <v>2.27</v>
       </c>
       <c r="AT207">
         <v>1.47</v>
@@ -40973,7 +41003,7 @@
         <v>85</v>
       </c>
       <c r="P208" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="Q208">
         <v>6</v>
@@ -41063,7 +41093,7 @@
         <v>1.4</v>
       </c>
       <c r="AT208">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AU208">
         <v>1.61</v>
@@ -41164,7 +41194,7 @@
         <v>223</v>
       </c>
       <c r="P209" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="Q209">
         <v>5</v>
@@ -41355,7 +41385,7 @@
         <v>224</v>
       </c>
       <c r="P210" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="Q210">
         <v>6</v>
@@ -41442,7 +41472,7 @@
         <v>2.08</v>
       </c>
       <c r="AS210">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AT210">
         <v>2.2</v>
@@ -41546,7 +41576,7 @@
         <v>85</v>
       </c>
       <c r="P211" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="Q211">
         <v>7</v>
@@ -41636,7 +41666,7 @@
         <v>1.13</v>
       </c>
       <c r="AT211">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU211">
         <v>1.56</v>
@@ -41928,7 +41958,7 @@
         <v>149</v>
       </c>
       <c r="P213" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="Q213">
         <v>6</v>
@@ -42119,7 +42149,7 @@
         <v>226</v>
       </c>
       <c r="P214" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="Q214">
         <v>6</v>
@@ -42209,7 +42239,7 @@
         <v>1.4</v>
       </c>
       <c r="AT214">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU214">
         <v>1.42</v>
@@ -42310,7 +42340,7 @@
         <v>105</v>
       </c>
       <c r="P215" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="Q215">
         <v>4</v>
@@ -42397,10 +42427,10 @@
         <v>1.23</v>
       </c>
       <c r="AS215">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT215">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AU215">
         <v>1.63</v>
@@ -42501,7 +42531,7 @@
         <v>227</v>
       </c>
       <c r="P216" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="Q216">
         <v>4</v>
@@ -42588,7 +42618,7 @@
         <v>1.31</v>
       </c>
       <c r="AS216">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AT216">
         <v>1.53</v>
@@ -42883,7 +42913,7 @@
         <v>177</v>
       </c>
       <c r="P218" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="Q218">
         <v>9</v>
@@ -42970,10 +43000,10 @@
         <v>0.46</v>
       </c>
       <c r="AS218">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AT218">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU218">
         <v>1.34</v>
@@ -43074,7 +43104,7 @@
         <v>228</v>
       </c>
       <c r="P219" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="Q219">
         <v>3</v>
@@ -43164,7 +43194,7 @@
         <v>1.93</v>
       </c>
       <c r="AT219">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AU219">
         <v>2.11</v>
@@ -43352,7 +43382,7 @@
         <v>1.15</v>
       </c>
       <c r="AS220">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AT220">
         <v>1.2</v>
@@ -43543,10 +43573,10 @@
         <v>0.15</v>
       </c>
       <c r="AS221">
-        <v>2.43</v>
+        <v>2.27</v>
       </c>
       <c r="AT221">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AU221">
         <v>2.15</v>
@@ -43647,7 +43677,7 @@
         <v>172</v>
       </c>
       <c r="P222" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="Q222">
         <v>7</v>
@@ -43734,7 +43764,7 @@
         <v>1</v>
       </c>
       <c r="AS222">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT222">
         <v>1</v>
@@ -43925,7 +43955,7 @@
         <v>1.38</v>
       </c>
       <c r="AS223">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AT223">
         <v>1.27</v>
@@ -44119,7 +44149,7 @@
         <v>1.4</v>
       </c>
       <c r="AT224">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AU224">
         <v>1.56</v>
@@ -44602,7 +44632,7 @@
         <v>233</v>
       </c>
       <c r="P227" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="Q227">
         <v>2</v>
@@ -44793,7 +44823,7 @@
         <v>234</v>
       </c>
       <c r="P228" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="Q228">
         <v>5</v>
@@ -44984,7 +45014,7 @@
         <v>85</v>
       </c>
       <c r="P229" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="Q229">
         <v>6</v>
@@ -45175,7 +45205,7 @@
         <v>235</v>
       </c>
       <c r="P230" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="Q230">
         <v>7</v>
@@ -45366,7 +45396,7 @@
         <v>236</v>
       </c>
       <c r="P231" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="Q231">
         <v>2</v>
@@ -45890,6 +45920,1534 @@
       </c>
       <c r="BK233">
         <v>8</v>
+      </c>
+    </row>
+    <row r="234" spans="1:63">
+      <c r="A234" s="1">
+        <v>233</v>
+      </c>
+      <c r="B234">
+        <v>1568608</v>
+      </c>
+      <c r="C234" t="s">
+        <v>63</v>
+      </c>
+      <c r="D234" t="s">
+        <v>64</v>
+      </c>
+      <c r="E234" s="2">
+        <v>44871.45833333334</v>
+      </c>
+      <c r="F234">
+        <v>30</v>
+      </c>
+      <c r="G234" t="s">
+        <v>78</v>
+      </c>
+      <c r="H234" t="s">
+        <v>71</v>
+      </c>
+      <c r="I234">
+        <v>0</v>
+      </c>
+      <c r="J234">
+        <v>0</v>
+      </c>
+      <c r="K234">
+        <v>0</v>
+      </c>
+      <c r="L234">
+        <v>0</v>
+      </c>
+      <c r="M234">
+        <v>1</v>
+      </c>
+      <c r="N234">
+        <v>1</v>
+      </c>
+      <c r="O234" t="s">
+        <v>85</v>
+      </c>
+      <c r="P234" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q234">
+        <v>10</v>
+      </c>
+      <c r="R234">
+        <v>4</v>
+      </c>
+      <c r="S234">
+        <v>14</v>
+      </c>
+      <c r="T234">
+        <v>2.71</v>
+      </c>
+      <c r="U234">
+        <v>2.42</v>
+      </c>
+      <c r="V234">
+        <v>3.9</v>
+      </c>
+      <c r="W234">
+        <v>1.32</v>
+      </c>
+      <c r="X234">
+        <v>3.1</v>
+      </c>
+      <c r="Y234">
+        <v>2.4</v>
+      </c>
+      <c r="Z234">
+        <v>1.5</v>
+      </c>
+      <c r="AA234">
+        <v>6.5</v>
+      </c>
+      <c r="AB234">
+        <v>1.1</v>
+      </c>
+      <c r="AC234">
+        <v>1.92</v>
+      </c>
+      <c r="AD234">
+        <v>3.31</v>
+      </c>
+      <c r="AE234">
+        <v>3.42</v>
+      </c>
+      <c r="AF234">
+        <v>1.03</v>
+      </c>
+      <c r="AG234">
+        <v>9</v>
+      </c>
+      <c r="AH234">
+        <v>1.17</v>
+      </c>
+      <c r="AI234">
+        <v>4.3</v>
+      </c>
+      <c r="AJ234">
+        <v>1.7</v>
+      </c>
+      <c r="AK234">
+        <v>2</v>
+      </c>
+      <c r="AL234">
+        <v>1.59</v>
+      </c>
+      <c r="AM234">
+        <v>2.41</v>
+      </c>
+      <c r="AN234">
+        <v>1.32</v>
+      </c>
+      <c r="AO234">
+        <v>1.32</v>
+      </c>
+      <c r="AP234">
+        <v>1.77</v>
+      </c>
+      <c r="AQ234">
+        <v>2</v>
+      </c>
+      <c r="AR234">
+        <v>1.21</v>
+      </c>
+      <c r="AS234">
+        <v>1.87</v>
+      </c>
+      <c r="AT234">
+        <v>1.33</v>
+      </c>
+      <c r="AU234">
+        <v>1.94</v>
+      </c>
+      <c r="AV234">
+        <v>1.79</v>
+      </c>
+      <c r="AW234">
+        <v>3.73</v>
+      </c>
+      <c r="AX234">
+        <v>1.56</v>
+      </c>
+      <c r="AY234">
+        <v>8</v>
+      </c>
+      <c r="AZ234">
+        <v>2.9</v>
+      </c>
+      <c r="BA234">
+        <v>1.12</v>
+      </c>
+      <c r="BB234">
+        <v>1.21</v>
+      </c>
+      <c r="BC234">
+        <v>1.43</v>
+      </c>
+      <c r="BD234">
+        <v>1.74</v>
+      </c>
+      <c r="BE234">
+        <v>2.2</v>
+      </c>
+      <c r="BF234">
+        <v>7</v>
+      </c>
+      <c r="BG234">
+        <v>8</v>
+      </c>
+      <c r="BH234">
+        <v>17</v>
+      </c>
+      <c r="BI234">
+        <v>11</v>
+      </c>
+      <c r="BJ234">
+        <v>24</v>
+      </c>
+      <c r="BK234">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="235" spans="1:63">
+      <c r="A235" s="1">
+        <v>234</v>
+      </c>
+      <c r="B235">
+        <v>1568609</v>
+      </c>
+      <c r="C235" t="s">
+        <v>63</v>
+      </c>
+      <c r="D235" t="s">
+        <v>64</v>
+      </c>
+      <c r="E235" s="2">
+        <v>44871.45833333334</v>
+      </c>
+      <c r="F235">
+        <v>30</v>
+      </c>
+      <c r="G235" t="s">
+        <v>66</v>
+      </c>
+      <c r="H235" t="s">
+        <v>69</v>
+      </c>
+      <c r="I235">
+        <v>2</v>
+      </c>
+      <c r="J235">
+        <v>2</v>
+      </c>
+      <c r="K235">
+        <v>4</v>
+      </c>
+      <c r="L235">
+        <v>3</v>
+      </c>
+      <c r="M235">
+        <v>3</v>
+      </c>
+      <c r="N235">
+        <v>6</v>
+      </c>
+      <c r="O235" t="s">
+        <v>238</v>
+      </c>
+      <c r="P235" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q235">
+        <v>8</v>
+      </c>
+      <c r="R235">
+        <v>8</v>
+      </c>
+      <c r="S235">
+        <v>16</v>
+      </c>
+      <c r="T235">
+        <v>2.11</v>
+      </c>
+      <c r="U235">
+        <v>2.76</v>
+      </c>
+      <c r="V235">
+        <v>4.89</v>
+      </c>
+      <c r="W235">
+        <v>1.25</v>
+      </c>
+      <c r="X235">
+        <v>3.6</v>
+      </c>
+      <c r="Y235">
+        <v>2.05</v>
+      </c>
+      <c r="Z235">
+        <v>1.7</v>
+      </c>
+      <c r="AA235">
+        <v>4.4</v>
+      </c>
+      <c r="AB235">
+        <v>1.17</v>
+      </c>
+      <c r="AC235">
+        <v>1.45</v>
+      </c>
+      <c r="AD235">
+        <v>4.48</v>
+      </c>
+      <c r="AE235">
+        <v>4.93</v>
+      </c>
+      <c r="AF235">
+        <v>1.01</v>
+      </c>
+      <c r="AG235">
+        <v>23</v>
+      </c>
+      <c r="AH235">
+        <v>1.1</v>
+      </c>
+      <c r="AI235">
+        <v>5.7</v>
+      </c>
+      <c r="AJ235">
+        <v>1.5</v>
+      </c>
+      <c r="AK235">
+        <v>2.4</v>
+      </c>
+      <c r="AL235">
+        <v>1.57</v>
+      </c>
+      <c r="AM235">
+        <v>2.45</v>
+      </c>
+      <c r="AN235">
+        <v>1.2</v>
+      </c>
+      <c r="AO235">
+        <v>1.22</v>
+      </c>
+      <c r="AP235">
+        <v>2.41</v>
+      </c>
+      <c r="AQ235">
+        <v>2.14</v>
+      </c>
+      <c r="AR235">
+        <v>1</v>
+      </c>
+      <c r="AS235">
+        <v>2.07</v>
+      </c>
+      <c r="AT235">
+        <v>1</v>
+      </c>
+      <c r="AU235">
+        <v>2.19</v>
+      </c>
+      <c r="AV235">
+        <v>1.39</v>
+      </c>
+      <c r="AW235">
+        <v>3.58</v>
+      </c>
+      <c r="AX235">
+        <v>1.27</v>
+      </c>
+      <c r="AY235">
+        <v>9</v>
+      </c>
+      <c r="AZ235">
+        <v>4.5</v>
+      </c>
+      <c r="BA235">
+        <v>1.1</v>
+      </c>
+      <c r="BB235">
+        <v>1.21</v>
+      </c>
+      <c r="BC235">
+        <v>1.35</v>
+      </c>
+      <c r="BD235">
+        <v>1.67</v>
+      </c>
+      <c r="BE235">
+        <v>2.1</v>
+      </c>
+      <c r="BF235">
+        <v>6</v>
+      </c>
+      <c r="BG235">
+        <v>9</v>
+      </c>
+      <c r="BH235">
+        <v>5</v>
+      </c>
+      <c r="BI235">
+        <v>7</v>
+      </c>
+      <c r="BJ235">
+        <v>11</v>
+      </c>
+      <c r="BK235">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="236" spans="1:63">
+      <c r="A236" s="1">
+        <v>235</v>
+      </c>
+      <c r="B236">
+        <v>1568610</v>
+      </c>
+      <c r="C236" t="s">
+        <v>63</v>
+      </c>
+      <c r="D236" t="s">
+        <v>64</v>
+      </c>
+      <c r="E236" s="2">
+        <v>44871.45833333334</v>
+      </c>
+      <c r="F236">
+        <v>30</v>
+      </c>
+      <c r="G236" t="s">
+        <v>72</v>
+      </c>
+      <c r="H236" t="s">
+        <v>77</v>
+      </c>
+      <c r="I236">
+        <v>0</v>
+      </c>
+      <c r="J236">
+        <v>1</v>
+      </c>
+      <c r="K236">
+        <v>1</v>
+      </c>
+      <c r="L236">
+        <v>0</v>
+      </c>
+      <c r="M236">
+        <v>1</v>
+      </c>
+      <c r="N236">
+        <v>1</v>
+      </c>
+      <c r="O236" t="s">
+        <v>85</v>
+      </c>
+      <c r="P236" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q236">
+        <v>8</v>
+      </c>
+      <c r="R236">
+        <v>6</v>
+      </c>
+      <c r="S236">
+        <v>14</v>
+      </c>
+      <c r="T236">
+        <v>1.86</v>
+      </c>
+      <c r="U236">
+        <v>2.72</v>
+      </c>
+      <c r="V236">
+        <v>7.27</v>
+      </c>
+      <c r="W236">
+        <v>1.3</v>
+      </c>
+      <c r="X236">
+        <v>3.2</v>
+      </c>
+      <c r="Y236">
+        <v>2.3</v>
+      </c>
+      <c r="Z236">
+        <v>1.55</v>
+      </c>
+      <c r="AA236">
+        <v>5.2</v>
+      </c>
+      <c r="AB236">
+        <v>1.13</v>
+      </c>
+      <c r="AC236">
+        <v>1.29</v>
+      </c>
+      <c r="AD236">
+        <v>4.68</v>
+      </c>
+      <c r="AE236">
+        <v>7.93</v>
+      </c>
+      <c r="AF236">
+        <v>1.02</v>
+      </c>
+      <c r="AG236">
+        <v>10</v>
+      </c>
+      <c r="AH236">
+        <v>1.15</v>
+      </c>
+      <c r="AI236">
+        <v>4.7</v>
+      </c>
+      <c r="AJ236">
+        <v>1.65</v>
+      </c>
+      <c r="AK236">
+        <v>2.1</v>
+      </c>
+      <c r="AL236">
+        <v>1.9</v>
+      </c>
+      <c r="AM236">
+        <v>1.93</v>
+      </c>
+      <c r="AN236">
+        <v>1.1</v>
+      </c>
+      <c r="AO236">
+        <v>1.17</v>
+      </c>
+      <c r="AP236">
+        <v>3.36</v>
+      </c>
+      <c r="AQ236">
+        <v>2.43</v>
+      </c>
+      <c r="AR236">
+        <v>1.36</v>
+      </c>
+      <c r="AS236">
+        <v>2.27</v>
+      </c>
+      <c r="AT236">
+        <v>1.47</v>
+      </c>
+      <c r="AU236">
+        <v>2.2</v>
+      </c>
+      <c r="AV236">
+        <v>1.25</v>
+      </c>
+      <c r="AW236">
+        <v>3.45</v>
+      </c>
+      <c r="AX236">
+        <v>1.18</v>
+      </c>
+      <c r="AY236">
+        <v>10</v>
+      </c>
+      <c r="AZ236">
+        <v>6</v>
+      </c>
+      <c r="BA236">
+        <v>1.2</v>
+      </c>
+      <c r="BB236">
+        <v>1.38</v>
+      </c>
+      <c r="BC236">
+        <v>1.68</v>
+      </c>
+      <c r="BD236">
+        <v>2.16</v>
+      </c>
+      <c r="BE236">
+        <v>3</v>
+      </c>
+      <c r="BF236">
+        <v>11</v>
+      </c>
+      <c r="BG236">
+        <v>3</v>
+      </c>
+      <c r="BH236">
+        <v>15</v>
+      </c>
+      <c r="BI236">
+        <v>9</v>
+      </c>
+      <c r="BJ236">
+        <v>26</v>
+      </c>
+      <c r="BK236">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="237" spans="1:63">
+      <c r="A237" s="1">
+        <v>236</v>
+      </c>
+      <c r="B237">
+        <v>1568611</v>
+      </c>
+      <c r="C237" t="s">
+        <v>63</v>
+      </c>
+      <c r="D237" t="s">
+        <v>64</v>
+      </c>
+      <c r="E237" s="2">
+        <v>44871.45833333334</v>
+      </c>
+      <c r="F237">
+        <v>30</v>
+      </c>
+      <c r="G237" t="s">
+        <v>75</v>
+      </c>
+      <c r="H237" t="s">
+        <v>65</v>
+      </c>
+      <c r="I237">
+        <v>0</v>
+      </c>
+      <c r="J237">
+        <v>0</v>
+      </c>
+      <c r="K237">
+        <v>0</v>
+      </c>
+      <c r="L237">
+        <v>0</v>
+      </c>
+      <c r="M237">
+        <v>2</v>
+      </c>
+      <c r="N237">
+        <v>2</v>
+      </c>
+      <c r="O237" t="s">
+        <v>85</v>
+      </c>
+      <c r="P237" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q237">
+        <v>6</v>
+      </c>
+      <c r="R237">
+        <v>3</v>
+      </c>
+      <c r="S237">
+        <v>9</v>
+      </c>
+      <c r="T237">
+        <v>6.64</v>
+      </c>
+      <c r="U237">
+        <v>2.76</v>
+      </c>
+      <c r="V237">
+        <v>1.89</v>
+      </c>
+      <c r="W237">
+        <v>1.27</v>
+      </c>
+      <c r="X237">
+        <v>3.4</v>
+      </c>
+      <c r="Y237">
+        <v>2.2</v>
+      </c>
+      <c r="Z237">
+        <v>1.6</v>
+      </c>
+      <c r="AA237">
+        <v>4.8</v>
+      </c>
+      <c r="AB237">
+        <v>1.15</v>
+      </c>
+      <c r="AC237">
+        <v>5.62</v>
+      </c>
+      <c r="AD237">
+        <v>3.95</v>
+      </c>
+      <c r="AE237">
+        <v>1.46</v>
+      </c>
+      <c r="AF237">
+        <v>1.02</v>
+      </c>
+      <c r="AG237">
+        <v>10</v>
+      </c>
+      <c r="AH237">
+        <v>1.12</v>
+      </c>
+      <c r="AI237">
+        <v>5.2</v>
+      </c>
+      <c r="AJ237">
+        <v>1.55</v>
+      </c>
+      <c r="AK237">
+        <v>2.3</v>
+      </c>
+      <c r="AL237">
+        <v>1.77</v>
+      </c>
+      <c r="AM237">
+        <v>2.1</v>
+      </c>
+      <c r="AN237">
+        <v>3.11</v>
+      </c>
+      <c r="AO237">
+        <v>1.2</v>
+      </c>
+      <c r="AP237">
+        <v>1.1</v>
+      </c>
+      <c r="AQ237">
+        <v>0.64</v>
+      </c>
+      <c r="AR237">
+        <v>1.5</v>
+      </c>
+      <c r="AS237">
+        <v>0.6</v>
+      </c>
+      <c r="AT237">
+        <v>1.6</v>
+      </c>
+      <c r="AU237">
+        <v>1.38</v>
+      </c>
+      <c r="AV237">
+        <v>1.62</v>
+      </c>
+      <c r="AW237">
+        <v>3</v>
+      </c>
+      <c r="AX237">
+        <v>4.75</v>
+      </c>
+      <c r="AY237">
+        <v>9.5</v>
+      </c>
+      <c r="AZ237">
+        <v>1.25</v>
+      </c>
+      <c r="BA237">
+        <v>1.17</v>
+      </c>
+      <c r="BB237">
+        <v>1.26</v>
+      </c>
+      <c r="BC237">
+        <v>1.5</v>
+      </c>
+      <c r="BD237">
+        <v>1.9</v>
+      </c>
+      <c r="BE237">
+        <v>2.43</v>
+      </c>
+      <c r="BF237">
+        <v>3</v>
+      </c>
+      <c r="BG237">
+        <v>3</v>
+      </c>
+      <c r="BH237">
+        <v>7</v>
+      </c>
+      <c r="BI237">
+        <v>8</v>
+      </c>
+      <c r="BJ237">
+        <v>10</v>
+      </c>
+      <c r="BK237">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="238" spans="1:63">
+      <c r="A238" s="1">
+        <v>237</v>
+      </c>
+      <c r="B238">
+        <v>1568612</v>
+      </c>
+      <c r="C238" t="s">
+        <v>63</v>
+      </c>
+      <c r="D238" t="s">
+        <v>64</v>
+      </c>
+      <c r="E238" s="2">
+        <v>44871.45833333334</v>
+      </c>
+      <c r="F238">
+        <v>30</v>
+      </c>
+      <c r="G238" t="s">
+        <v>79</v>
+      </c>
+      <c r="H238" t="s">
+        <v>67</v>
+      </c>
+      <c r="I238">
+        <v>0</v>
+      </c>
+      <c r="J238">
+        <v>1</v>
+      </c>
+      <c r="K238">
+        <v>1</v>
+      </c>
+      <c r="L238">
+        <v>1</v>
+      </c>
+      <c r="M238">
+        <v>4</v>
+      </c>
+      <c r="N238">
+        <v>5</v>
+      </c>
+      <c r="O238" t="s">
+        <v>239</v>
+      </c>
+      <c r="P238" t="s">
+        <v>343</v>
+      </c>
+      <c r="Q238">
+        <v>1</v>
+      </c>
+      <c r="R238">
+        <v>5</v>
+      </c>
+      <c r="S238">
+        <v>6</v>
+      </c>
+      <c r="T238">
+        <v>3</v>
+      </c>
+      <c r="U238">
+        <v>2.2</v>
+      </c>
+      <c r="V238">
+        <v>3</v>
+      </c>
+      <c r="W238">
+        <v>1.31</v>
+      </c>
+      <c r="X238">
+        <v>3.2</v>
+      </c>
+      <c r="Y238">
+        <v>2.35</v>
+      </c>
+      <c r="Z238">
+        <v>1.52</v>
+      </c>
+      <c r="AA238">
+        <v>5.5</v>
+      </c>
+      <c r="AB238">
+        <v>1.13</v>
+      </c>
+      <c r="AC238">
+        <v>2.52</v>
+      </c>
+      <c r="AD238">
+        <v>3.4</v>
+      </c>
+      <c r="AE238">
+        <v>2.36</v>
+      </c>
+      <c r="AF238">
+        <v>1</v>
+      </c>
+      <c r="AG238">
+        <v>10.5</v>
+      </c>
+      <c r="AH238">
+        <v>1.17</v>
+      </c>
+      <c r="AI238">
+        <v>4.5</v>
+      </c>
+      <c r="AJ238">
+        <v>1.6</v>
+      </c>
+      <c r="AK238">
+        <v>2.2</v>
+      </c>
+      <c r="AL238">
+        <v>1.52</v>
+      </c>
+      <c r="AM238">
+        <v>2.35</v>
+      </c>
+      <c r="AN238">
+        <v>1.47</v>
+      </c>
+      <c r="AO238">
+        <v>1.29</v>
+      </c>
+      <c r="AP238">
+        <v>1.49</v>
+      </c>
+      <c r="AQ238">
+        <v>1.5</v>
+      </c>
+      <c r="AR238">
+        <v>1.29</v>
+      </c>
+      <c r="AS238">
+        <v>1.4</v>
+      </c>
+      <c r="AT238">
+        <v>1.4</v>
+      </c>
+      <c r="AU238">
+        <v>1.37</v>
+      </c>
+      <c r="AV238">
+        <v>1.45</v>
+      </c>
+      <c r="AW238">
+        <v>2.82</v>
+      </c>
+      <c r="AX238">
+        <v>2.05</v>
+      </c>
+      <c r="AY238">
+        <v>7.5</v>
+      </c>
+      <c r="AZ238">
+        <v>2.05</v>
+      </c>
+      <c r="BA238">
+        <v>1.12</v>
+      </c>
+      <c r="BB238">
+        <v>1.24</v>
+      </c>
+      <c r="BC238">
+        <v>1.48</v>
+      </c>
+      <c r="BD238">
+        <v>1.83</v>
+      </c>
+      <c r="BE238">
+        <v>2.35</v>
+      </c>
+      <c r="BF238">
+        <v>4</v>
+      </c>
+      <c r="BG238">
+        <v>8</v>
+      </c>
+      <c r="BH238">
+        <v>5</v>
+      </c>
+      <c r="BI238">
+        <v>7</v>
+      </c>
+      <c r="BJ238">
+        <v>9</v>
+      </c>
+      <c r="BK238">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="239" spans="1:63">
+      <c r="A239" s="1">
+        <v>238</v>
+      </c>
+      <c r="B239">
+        <v>1568613</v>
+      </c>
+      <c r="C239" t="s">
+        <v>63</v>
+      </c>
+      <c r="D239" t="s">
+        <v>64</v>
+      </c>
+      <c r="E239" s="2">
+        <v>44871.45833333334</v>
+      </c>
+      <c r="F239">
+        <v>30</v>
+      </c>
+      <c r="G239" t="s">
+        <v>68</v>
+      </c>
+      <c r="H239" t="s">
+        <v>76</v>
+      </c>
+      <c r="I239">
+        <v>0</v>
+      </c>
+      <c r="J239">
+        <v>3</v>
+      </c>
+      <c r="K239">
+        <v>3</v>
+      </c>
+      <c r="L239">
+        <v>2</v>
+      </c>
+      <c r="M239">
+        <v>3</v>
+      </c>
+      <c r="N239">
+        <v>5</v>
+      </c>
+      <c r="O239" t="s">
+        <v>240</v>
+      </c>
+      <c r="P239" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q239">
+        <v>5</v>
+      </c>
+      <c r="R239">
+        <v>3</v>
+      </c>
+      <c r="S239">
+        <v>8</v>
+      </c>
+      <c r="T239">
+        <v>3.28</v>
+      </c>
+      <c r="U239">
+        <v>2.4</v>
+      </c>
+      <c r="V239">
+        <v>3.15</v>
+      </c>
+      <c r="W239">
+        <v>1.3</v>
+      </c>
+      <c r="X239">
+        <v>3.25</v>
+      </c>
+      <c r="Y239">
+        <v>2.3</v>
+      </c>
+      <c r="Z239">
+        <v>1.53</v>
+      </c>
+      <c r="AA239">
+        <v>5.25</v>
+      </c>
+      <c r="AB239">
+        <v>1.13</v>
+      </c>
+      <c r="AC239">
+        <v>1.92</v>
+      </c>
+      <c r="AD239">
+        <v>3.26</v>
+      </c>
+      <c r="AE239">
+        <v>3.49</v>
+      </c>
+      <c r="AF239">
+        <v>1</v>
+      </c>
+      <c r="AG239">
+        <v>11.25</v>
+      </c>
+      <c r="AH239">
+        <v>1.17</v>
+      </c>
+      <c r="AI239">
+        <v>4.5</v>
+      </c>
+      <c r="AJ239">
+        <v>1.77</v>
+      </c>
+      <c r="AK239">
+        <v>1.9</v>
+      </c>
+      <c r="AL239">
+        <v>1.51</v>
+      </c>
+      <c r="AM239">
+        <v>2.37</v>
+      </c>
+      <c r="AN239">
+        <v>1.46</v>
+      </c>
+      <c r="AO239">
+        <v>1.28</v>
+      </c>
+      <c r="AP239">
+        <v>1.52</v>
+      </c>
+      <c r="AQ239">
+        <v>1.43</v>
+      </c>
+      <c r="AR239">
+        <v>0.79</v>
+      </c>
+      <c r="AS239">
+        <v>1.33</v>
+      </c>
+      <c r="AT239">
+        <v>0.93</v>
+      </c>
+      <c r="AU239">
+        <v>1.41</v>
+      </c>
+      <c r="AV239">
+        <v>1.19</v>
+      </c>
+      <c r="AW239">
+        <v>2.6</v>
+      </c>
+      <c r="AX239">
+        <v>2.04</v>
+      </c>
+      <c r="AY239">
+        <v>7.5</v>
+      </c>
+      <c r="AZ239">
+        <v>2.04</v>
+      </c>
+      <c r="BA239">
+        <v>1.17</v>
+      </c>
+      <c r="BB239">
+        <v>1.21</v>
+      </c>
+      <c r="BC239">
+        <v>1.43</v>
+      </c>
+      <c r="BD239">
+        <v>1.74</v>
+      </c>
+      <c r="BE239">
+        <v>2.2</v>
+      </c>
+      <c r="BF239">
+        <v>8</v>
+      </c>
+      <c r="BG239">
+        <v>6</v>
+      </c>
+      <c r="BH239">
+        <v>17</v>
+      </c>
+      <c r="BI239">
+        <v>4</v>
+      </c>
+      <c r="BJ239">
+        <v>25</v>
+      </c>
+      <c r="BK239">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="240" spans="1:63">
+      <c r="A240" s="1">
+        <v>239</v>
+      </c>
+      <c r="B240">
+        <v>1568614</v>
+      </c>
+      <c r="C240" t="s">
+        <v>63</v>
+      </c>
+      <c r="D240" t="s">
+        <v>64</v>
+      </c>
+      <c r="E240" s="2">
+        <v>44871.45833333334</v>
+      </c>
+      <c r="F240">
+        <v>30</v>
+      </c>
+      <c r="G240" t="s">
+        <v>70</v>
+      </c>
+      <c r="H240" t="s">
+        <v>73</v>
+      </c>
+      <c r="I240">
+        <v>1</v>
+      </c>
+      <c r="J240">
+        <v>0</v>
+      </c>
+      <c r="K240">
+        <v>1</v>
+      </c>
+      <c r="L240">
+        <v>4</v>
+      </c>
+      <c r="M240">
+        <v>0</v>
+      </c>
+      <c r="N240">
+        <v>4</v>
+      </c>
+      <c r="O240" t="s">
+        <v>241</v>
+      </c>
+      <c r="P240" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q240">
+        <v>5</v>
+      </c>
+      <c r="R240">
+        <v>1</v>
+      </c>
+      <c r="S240">
+        <v>6</v>
+      </c>
+      <c r="T240">
+        <v>1.53</v>
+      </c>
+      <c r="U240">
+        <v>2.85</v>
+      </c>
+      <c r="V240">
+        <v>9</v>
+      </c>
+      <c r="W240">
+        <v>1.22</v>
+      </c>
+      <c r="X240">
+        <v>3.9</v>
+      </c>
+      <c r="Y240">
+        <v>1.95</v>
+      </c>
+      <c r="Z240">
+        <v>1.75</v>
+      </c>
+      <c r="AA240">
+        <v>4</v>
+      </c>
+      <c r="AB240">
+        <v>1.21</v>
+      </c>
+      <c r="AC240">
+        <v>1.16</v>
+      </c>
+      <c r="AD240">
+        <v>5.67</v>
+      </c>
+      <c r="AE240">
+        <v>12.5</v>
+      </c>
+      <c r="AF240">
+        <v>1.01</v>
+      </c>
+      <c r="AG240">
+        <v>17</v>
+      </c>
+      <c r="AH240">
+        <v>1.09</v>
+      </c>
+      <c r="AI240">
+        <v>5.7</v>
+      </c>
+      <c r="AJ240">
+        <v>1.44</v>
+      </c>
+      <c r="AK240">
+        <v>2.6</v>
+      </c>
+      <c r="AL240">
+        <v>1.95</v>
+      </c>
+      <c r="AM240">
+        <v>1.73</v>
+      </c>
+      <c r="AN240">
+        <v>1.03</v>
+      </c>
+      <c r="AO240">
+        <v>1.1</v>
+      </c>
+      <c r="AP240">
+        <v>4.6</v>
+      </c>
+      <c r="AQ240">
+        <v>2.07</v>
+      </c>
+      <c r="AR240">
+        <v>0.14</v>
+      </c>
+      <c r="AS240">
+        <v>2.13</v>
+      </c>
+      <c r="AT240">
+        <v>0.13</v>
+      </c>
+      <c r="AU240">
+        <v>1.66</v>
+      </c>
+      <c r="AV240">
+        <v>1.06</v>
+      </c>
+      <c r="AW240">
+        <v>2.72</v>
+      </c>
+      <c r="AX240">
+        <v>1.1</v>
+      </c>
+      <c r="AY240">
+        <v>12.5</v>
+      </c>
+      <c r="AZ240">
+        <v>8.5</v>
+      </c>
+      <c r="BA240">
+        <v>1.2</v>
+      </c>
+      <c r="BB240">
+        <v>1.28</v>
+      </c>
+      <c r="BC240">
+        <v>1.55</v>
+      </c>
+      <c r="BD240">
+        <v>2</v>
+      </c>
+      <c r="BE240">
+        <v>2.5</v>
+      </c>
+      <c r="BF240">
+        <v>7</v>
+      </c>
+      <c r="BG240">
+        <v>0</v>
+      </c>
+      <c r="BH240">
+        <v>11</v>
+      </c>
+      <c r="BI240">
+        <v>4</v>
+      </c>
+      <c r="BJ240">
+        <v>18</v>
+      </c>
+      <c r="BK240">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="241" spans="1:63">
+      <c r="A241" s="1">
+        <v>240</v>
+      </c>
+      <c r="B241">
+        <v>1568615</v>
+      </c>
+      <c r="C241" t="s">
+        <v>63</v>
+      </c>
+      <c r="D241" t="s">
+        <v>64</v>
+      </c>
+      <c r="E241" s="2">
+        <v>44871.45833333334</v>
+      </c>
+      <c r="F241">
+        <v>30</v>
+      </c>
+      <c r="G241" t="s">
+        <v>80</v>
+      </c>
+      <c r="H241" t="s">
+        <v>74</v>
+      </c>
+      <c r="I241">
+        <v>1</v>
+      </c>
+      <c r="J241">
+        <v>1</v>
+      </c>
+      <c r="K241">
+        <v>2</v>
+      </c>
+      <c r="L241">
+        <v>2</v>
+      </c>
+      <c r="M241">
+        <v>2</v>
+      </c>
+      <c r="N241">
+        <v>4</v>
+      </c>
+      <c r="O241" t="s">
+        <v>242</v>
+      </c>
+      <c r="P241" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q241">
+        <v>2</v>
+      </c>
+      <c r="R241">
+        <v>3</v>
+      </c>
+      <c r="S241">
+        <v>5</v>
+      </c>
+      <c r="T241">
+        <v>2.05</v>
+      </c>
+      <c r="U241">
+        <v>2.4</v>
+      </c>
+      <c r="V241">
+        <v>4.6</v>
+      </c>
+      <c r="W241">
+        <v>1.25</v>
+      </c>
+      <c r="X241">
+        <v>3.6</v>
+      </c>
+      <c r="Y241">
+        <v>2.1</v>
+      </c>
+      <c r="Z241">
+        <v>1.65</v>
+      </c>
+      <c r="AA241">
+        <v>4.5</v>
+      </c>
+      <c r="AB241">
+        <v>1.17</v>
+      </c>
+      <c r="AC241">
+        <v>1.26</v>
+      </c>
+      <c r="AD241">
+        <v>5.39</v>
+      </c>
+      <c r="AE241">
+        <v>7.44</v>
+      </c>
+      <c r="AF241">
+        <v>1.02</v>
+      </c>
+      <c r="AG241">
+        <v>14.5</v>
+      </c>
+      <c r="AH241">
+        <v>1.12</v>
+      </c>
+      <c r="AI241">
+        <v>5</v>
+      </c>
+      <c r="AJ241">
+        <v>1.45</v>
+      </c>
+      <c r="AK241">
+        <v>2.55</v>
+      </c>
+      <c r="AL241">
+        <v>1.53</v>
+      </c>
+      <c r="AM241">
+        <v>2.3</v>
+      </c>
+      <c r="AN241">
+        <v>1.17</v>
+      </c>
+      <c r="AO241">
+        <v>1.22</v>
+      </c>
+      <c r="AP241">
+        <v>2.3</v>
+      </c>
+      <c r="AQ241">
+        <v>1.93</v>
+      </c>
+      <c r="AR241">
+        <v>0.64</v>
+      </c>
+      <c r="AS241">
+        <v>1.87</v>
+      </c>
+      <c r="AT241">
+        <v>0.67</v>
+      </c>
+      <c r="AU241">
+        <v>2.18</v>
+      </c>
+      <c r="AV241">
+        <v>1.59</v>
+      </c>
+      <c r="AW241">
+        <v>3.77</v>
+      </c>
+      <c r="AX241">
+        <v>1.5</v>
+      </c>
+      <c r="AY241">
+        <v>8</v>
+      </c>
+      <c r="AZ241">
+        <v>3.1</v>
+      </c>
+      <c r="BA241">
+        <v>1.12</v>
+      </c>
+      <c r="BB241">
+        <v>1.27</v>
+      </c>
+      <c r="BC241">
+        <v>1.55</v>
+      </c>
+      <c r="BD241">
+        <v>1.98</v>
+      </c>
+      <c r="BE241">
+        <v>2.5</v>
+      </c>
+      <c r="BF241">
+        <v>4</v>
+      </c>
+      <c r="BG241">
+        <v>7</v>
+      </c>
+      <c r="BH241">
+        <v>9</v>
+      </c>
+      <c r="BI241">
+        <v>5</v>
+      </c>
+      <c r="BJ241">
+        <v>13</v>
+      </c>
+      <c r="BK241">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Sweden Allsvenskan_2022.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Sweden Allsvenskan_2022.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
